--- a/alerts.xlsx
+++ b/alerts.xlsx
@@ -5,6 +5,8 @@
   <sheets>
     <sheet name="code-scanning-issues" sheetId="1" r:id="rId1"/>
     <sheet name="dependencies-list" sheetId="2" r:id="rId2"/>
+    <sheet name="dependencies-Pivot" sheetId="3" r:id="rId3"/>
+    <sheet name="code-scanning-Pivot" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -412,7 +414,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/293</v>
       </c>
       <c r="D2" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E2" t="str">
         <v>java/random-used-once</v>
@@ -432,7 +434,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/292</v>
       </c>
       <c r="D3" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E3" t="str">
         <v>java/potentially-weak-cryptographic-algorithm</v>
@@ -452,7 +454,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/291</v>
       </c>
       <c r="D4" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E4" t="str">
         <v>java/unsafe-get-resource</v>
@@ -472,7 +474,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/290</v>
       </c>
       <c r="D5" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E5" t="str">
         <v>java/unused-parameter</v>
@@ -492,7 +494,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/289</v>
       </c>
       <c r="D6" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E6" t="str">
         <v>java/unused-parameter</v>
@@ -512,7 +514,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/288</v>
       </c>
       <c r="D7" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E7" t="str">
         <v>java/unused-parameter</v>
@@ -532,7 +534,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/287</v>
       </c>
       <c r="D8" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E8" t="str">
         <v>java/unused-parameter</v>
@@ -552,7 +554,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/286</v>
       </c>
       <c r="D9" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E9" t="str">
         <v>java/unused-parameter</v>
@@ -572,7 +574,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/285</v>
       </c>
       <c r="D10" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E10" t="str">
         <v>java/unused-parameter</v>
@@ -592,7 +594,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/284</v>
       </c>
       <c r="D11" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E11" t="str">
         <v>java/unused-parameter</v>
@@ -612,7 +614,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/283</v>
       </c>
       <c r="D12" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E12" t="str">
         <v>java/unused-parameter</v>
@@ -632,7 +634,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/282</v>
       </c>
       <c r="D13" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E13" t="str">
         <v>java/unused-parameter</v>
@@ -652,7 +654,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/281</v>
       </c>
       <c r="D14" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E14" t="str">
         <v>java/unused-parameter</v>
@@ -672,7 +674,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/280</v>
       </c>
       <c r="D15" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E15" t="str">
         <v>java/non-static-nested-class</v>
@@ -692,7 +694,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/279</v>
       </c>
       <c r="D16" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E16" t="str">
         <v>java/non-static-nested-class</v>
@@ -712,7 +714,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/278</v>
       </c>
       <c r="D17" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E17" t="str">
         <v>java/non-static-nested-class</v>
@@ -732,7 +734,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/277</v>
       </c>
       <c r="D18" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E18" t="str">
         <v>java/non-static-nested-class</v>
@@ -752,7 +754,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/276</v>
       </c>
       <c r="D19" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E19" t="str">
         <v>java/non-static-nested-class</v>
@@ -772,7 +774,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/275</v>
       </c>
       <c r="D20" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E20" t="str">
         <v>java/non-static-nested-class</v>
@@ -792,7 +794,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/274</v>
       </c>
       <c r="D21" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E21" t="str">
         <v>java/non-static-nested-class</v>
@@ -812,7 +814,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/273</v>
       </c>
       <c r="D22" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E22" t="str">
         <v>java/non-static-nested-class</v>
@@ -832,7 +834,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/272</v>
       </c>
       <c r="D23" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E23" t="str">
         <v>java/non-static-nested-class</v>
@@ -852,7 +854,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/271</v>
       </c>
       <c r="D24" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E24" t="str">
         <v>java/non-static-nested-class</v>
@@ -872,7 +874,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/270</v>
       </c>
       <c r="D25" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E25" t="str">
         <v>java/inefficient-empty-string-test</v>
@@ -892,7 +894,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/269</v>
       </c>
       <c r="D26" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E26" t="str">
         <v>java/inefficient-empty-string-test</v>
@@ -912,7 +914,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/268</v>
       </c>
       <c r="D27" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E27" t="str">
         <v>java/input-resource-leak</v>
@@ -932,7 +934,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/267</v>
       </c>
       <c r="D28" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E28" t="str">
         <v>java/input-resource-leak</v>
@@ -952,7 +954,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/266</v>
       </c>
       <c r="D29" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E29" t="str">
         <v>java/input-resource-leak</v>
@@ -972,7 +974,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/265</v>
       </c>
       <c r="D30" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E30" t="str">
         <v>java/database-resource-leak</v>
@@ -992,7 +994,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/264</v>
       </c>
       <c r="D31" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E31" t="str">
         <v>java/database-resource-leak</v>
@@ -1012,7 +1014,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/263</v>
       </c>
       <c r="D32" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E32" t="str">
         <v>java/database-resource-leak</v>
@@ -1032,7 +1034,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/262</v>
       </c>
       <c r="D33" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E33" t="str">
         <v>java/database-resource-leak</v>
@@ -1052,7 +1054,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/261</v>
       </c>
       <c r="D34" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E34" t="str">
         <v>java/database-resource-leak</v>
@@ -1072,7 +1074,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/260</v>
       </c>
       <c r="D35" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E35" t="str">
         <v>java/output-resource-leak</v>
@@ -1092,7 +1094,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/259</v>
       </c>
       <c r="D36" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E36" t="str">
         <v>java/output-resource-leak</v>
@@ -1112,7 +1114,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/258</v>
       </c>
       <c r="D37" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E37" t="str">
         <v>java/unused-format-argument</v>
@@ -1132,7 +1134,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/257</v>
       </c>
       <c r="D38" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E38" t="str">
         <v>java/missing-space-in-concatenation</v>
@@ -1152,7 +1154,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/256</v>
       </c>
       <c r="D39" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E39" t="str">
         <v>java/dereferenced-value-may-be-null</v>
@@ -1172,7 +1174,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/255</v>
       </c>
       <c r="D40" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E40" t="str">
         <v>java/local-variable-is-never-read</v>
@@ -1192,7 +1194,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/254</v>
       </c>
       <c r="D41" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E41" t="str">
         <v>java/local-variable-is-never-read</v>
@@ -1212,7 +1214,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/253</v>
       </c>
       <c r="D42" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E42" t="str">
         <v>java/unused-reference-type</v>
@@ -1232,7 +1234,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/252</v>
       </c>
       <c r="D43" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E43" t="str">
         <v>java/unused-reference-type</v>
@@ -1252,7 +1254,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/251</v>
       </c>
       <c r="D44" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E44" t="str">
         <v>java/uncaught-number-format-exception</v>
@@ -1272,7 +1274,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/250</v>
       </c>
       <c r="D45" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E45" t="str">
         <v>java/uncaught-number-format-exception</v>
@@ -1292,7 +1294,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/249</v>
       </c>
       <c r="D46" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E46" t="str">
         <v>java/uncaught-number-format-exception</v>
@@ -1312,7 +1314,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/248</v>
       </c>
       <c r="D47" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E47" t="str">
         <v>java/ignored-error-status-of-call</v>
@@ -1332,7 +1334,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/247</v>
       </c>
       <c r="D48" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E48" t="str">
         <v>java/ignored-error-status-of-call</v>
@@ -1352,7 +1354,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/246</v>
       </c>
       <c r="D49" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E49" t="str">
         <v>java/ignored-error-status-of-call</v>
@@ -1372,7 +1374,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/245</v>
       </c>
       <c r="D50" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E50" t="str">
         <v>java/call-to-object-tostring</v>
@@ -1392,7 +1394,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/244</v>
       </c>
       <c r="D51" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E51" t="str">
         <v>java/deprecated-call</v>
@@ -1412,7 +1414,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/243</v>
       </c>
       <c r="D52" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E52" t="str">
         <v>java/deprecated-call</v>
@@ -1432,7 +1434,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/242</v>
       </c>
       <c r="D53" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E53" t="str">
         <v>java/deprecated-call</v>
@@ -1452,7 +1454,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/241</v>
       </c>
       <c r="D54" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E54" t="str">
         <v>java/deprecated-call</v>
@@ -1472,7 +1474,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/240</v>
       </c>
       <c r="D55" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E55" t="str">
         <v>java/deprecated-call</v>
@@ -1492,7 +1494,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/239</v>
       </c>
       <c r="D56" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E56" t="str">
         <v>java/deprecated-call</v>
@@ -1512,7 +1514,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/238</v>
       </c>
       <c r="D57" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E57" t="str">
         <v>java/missing-override-annotation</v>
@@ -1532,7 +1534,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/237</v>
       </c>
       <c r="D58" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E58" t="str">
         <v>java/missing-override-annotation</v>
@@ -1552,7 +1554,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/236</v>
       </c>
       <c r="D59" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E59" t="str">
         <v>java/missing-override-annotation</v>
@@ -1572,7 +1574,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/235</v>
       </c>
       <c r="D60" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E60" t="str">
         <v>java/missing-override-annotation</v>
@@ -1592,7 +1594,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/234</v>
       </c>
       <c r="D61" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E61" t="str">
         <v>java/missing-override-annotation</v>
@@ -1612,7 +1614,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/233</v>
       </c>
       <c r="D62" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E62" t="str">
         <v>java/missing-override-annotation</v>
@@ -1632,7 +1634,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/232</v>
       </c>
       <c r="D63" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E63" t="str">
         <v>java/missing-override-annotation</v>
@@ -1652,7 +1654,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/231</v>
       </c>
       <c r="D64" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E64" t="str">
         <v>java/missing-override-annotation</v>
@@ -1672,7 +1674,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/230</v>
       </c>
       <c r="D65" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E65" t="str">
         <v>java/missing-override-annotation</v>
@@ -1692,7 +1694,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/229</v>
       </c>
       <c r="D66" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E66" t="str">
         <v>java/missing-override-annotation</v>
@@ -1712,7 +1714,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/228</v>
       </c>
       <c r="D67" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E67" t="str">
         <v>java/missing-override-annotation</v>
@@ -1732,7 +1734,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/227</v>
       </c>
       <c r="D68" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E68" t="str">
         <v>java/missing-override-annotation</v>
@@ -1752,7 +1754,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/226</v>
       </c>
       <c r="D69" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E69" t="str">
         <v>java/missing-override-annotation</v>
@@ -1772,7 +1774,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/225</v>
       </c>
       <c r="D70" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E70" t="str">
         <v>java/missing-override-annotation</v>
@@ -1792,7 +1794,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/224</v>
       </c>
       <c r="D71" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E71" t="str">
         <v>java/missing-override-annotation</v>
@@ -1812,7 +1814,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/223</v>
       </c>
       <c r="D72" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E72" t="str">
         <v>java/missing-override-annotation</v>
@@ -1832,7 +1834,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/222</v>
       </c>
       <c r="D73" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E73" t="str">
         <v>java/missing-override-annotation</v>
@@ -1852,7 +1854,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/221</v>
       </c>
       <c r="D74" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E74" t="str">
         <v>java/path-injection</v>
@@ -1872,7 +1874,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/220</v>
       </c>
       <c r="D75" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E75" t="str">
         <v>java/path-injection</v>
@@ -1892,7 +1894,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/219</v>
       </c>
       <c r="D76" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E76" t="str">
         <v>java/path-injection</v>
@@ -1912,7 +1914,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/218</v>
       </c>
       <c r="D77" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E77" t="str">
         <v>java/path-injection</v>
@@ -1932,7 +1934,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/217</v>
       </c>
       <c r="D78" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E78" t="str">
         <v>java/path-injection</v>
@@ -1952,7 +1954,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/216</v>
       </c>
       <c r="D79" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E79" t="str">
         <v>java/zipslip</v>
@@ -1972,7 +1974,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/215</v>
       </c>
       <c r="D80" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E80" t="str">
         <v>java/spring-disabled-csrf-protection</v>
@@ -1992,7 +1994,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/214</v>
       </c>
       <c r="D81" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E81" t="str">
         <v>java/spring-disabled-csrf-protection</v>
@@ -2012,7 +2014,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/213</v>
       </c>
       <c r="D82" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E82" t="str">
         <v>java/sql-injection</v>
@@ -2032,7 +2034,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/212</v>
       </c>
       <c r="D83" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E83" t="str">
         <v>java/sql-injection</v>
@@ -2052,7 +2054,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/211</v>
       </c>
       <c r="D84" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E84" t="str">
         <v>java/sql-injection</v>
@@ -2072,7 +2074,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/210</v>
       </c>
       <c r="D85" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E85" t="str">
         <v>java/missing-jwt-signature-check</v>
@@ -2092,7 +2094,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/209</v>
       </c>
       <c r="D86" t="str">
-        <v>open</v>
+        <v>fixed</v>
       </c>
       <c r="E86" t="str">
         <v>java/missing-jwt-signature-check</v>
@@ -2632,7 +2634,7 @@
         <v>https://github.com/amitgupta7/WebGoat/security/code-scanning/182</v>
       </c>
       <c r="D113" t="str">
-        <v>fixed</v>
+        <v>open</v>
       </c>
       <c r="E113" t="str">
         <v>java/unused-reference-type</v>
@@ -6270,7 +6272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7572,16 +7574,16 @@
         <v>.github/workflows/codeql-analysis.yml</v>
       </c>
       <c r="B77" t="str">
-        <v>advanced-security/delombok-action</v>
+        <v>github/codeql-action/analyze</v>
       </c>
       <c r="C77" t="str">
         <v>ACTIONS</v>
       </c>
       <c r="D77" t="str">
-        <v>= webgoat</v>
+        <v>= 1</v>
       </c>
       <c r="E77" t="str">
-        <v/>
+        <v>MIT License</v>
       </c>
     </row>
     <row r="78">
@@ -7589,7 +7591,7 @@
         <v>.github/workflows/codeql-analysis.yml</v>
       </c>
       <c r="B78" t="str">
-        <v>github/codeql-action/analyze</v>
+        <v>github/codeql-action/init</v>
       </c>
       <c r="C78" t="str">
         <v>ACTIONS</v>
@@ -7603,16 +7605,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>.github/workflows/codeql-analysis.yml</v>
+        <v>.github/workflows/main.yml</v>
       </c>
       <c r="B79" t="str">
-        <v>github/codeql-action/init</v>
+        <v>actions/upload-artifact</v>
       </c>
       <c r="C79" t="str">
         <v>ACTIONS</v>
       </c>
       <c r="D79" t="str">
-        <v>= 1</v>
+        <v>= 2</v>
       </c>
       <c r="E79" t="str">
         <v>MIT License</v>
@@ -7623,7 +7625,7 @@
         <v>.github/workflows/main.yml</v>
       </c>
       <c r="B80" t="str">
-        <v>actions/upload-artifact</v>
+        <v>amitgupta7/ghas-reports-action</v>
       </c>
       <c r="C80" t="str">
         <v>ACTIONS</v>
@@ -7637,19 +7639,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>.github/workflows/main.yml</v>
+        <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B81" t="str">
-        <v>amitgupta7/ghas-reports-action</v>
+        <v>org.apache.commons:commons-lang3</v>
       </c>
       <c r="C81" t="str">
-        <v>ACTIONS</v>
+        <v>MAVEN</v>
       </c>
       <c r="D81" t="str">
-        <v>= 2</v>
+        <v/>
       </c>
       <c r="E81" t="str">
-        <v>MIT License</v>
+        <v>Apache License 2.0</v>
       </c>
     </row>
     <row r="82">
@@ -7657,7 +7659,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B82" t="str">
-        <v>org.apache.commons:commons-lang3</v>
+        <v>org.apache.maven.plugins:maven-jar-plugin</v>
       </c>
       <c r="C82" t="str">
         <v>MAVEN</v>
@@ -7674,7 +7676,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B83" t="str">
-        <v>org.apache.maven.plugins:maven-jar-plugin</v>
+        <v>org.apache.maven.plugins:maven-surefire-plugin</v>
       </c>
       <c r="C83" t="str">
         <v>MAVEN</v>
@@ -7683,7 +7685,7 @@
         <v/>
       </c>
       <c r="E83" t="str">
-        <v>Apache License 2.0</v>
+        <v/>
       </c>
     </row>
     <row r="84">
@@ -7691,7 +7693,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B84" t="str">
-        <v>org.apache.maven.plugins:maven-surefire-plugin</v>
+        <v>org.asciidoctor:asciidoctorj</v>
       </c>
       <c r="C84" t="str">
         <v>MAVEN</v>
@@ -7708,7 +7710,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B85" t="str">
-        <v>org.asciidoctor:asciidoctorj</v>
+        <v>org.flywaydb:flyway-core</v>
       </c>
       <c r="C85" t="str">
         <v>MAVEN</v>
@@ -7717,7 +7719,7 @@
         <v/>
       </c>
       <c r="E85" t="str">
-        <v/>
+        <v>Other</v>
       </c>
     </row>
     <row r="86">
@@ -7725,7 +7727,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B86" t="str">
-        <v>org.flywaydb:flyway-core</v>
+        <v>org.hsqldb:hsqldb</v>
       </c>
       <c r="C86" t="str">
         <v>MAVEN</v>
@@ -7734,7 +7736,7 @@
         <v/>
       </c>
       <c r="E86" t="str">
-        <v>Other</v>
+        <v/>
       </c>
     </row>
     <row r="87">
@@ -7742,7 +7744,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B87" t="str">
-        <v>org.hsqldb:hsqldb</v>
+        <v>org.springframework.boot:spring-boot-starter-actuator</v>
       </c>
       <c r="C87" t="str">
         <v>MAVEN</v>
@@ -7751,7 +7753,7 @@
         <v/>
       </c>
       <c r="E87" t="str">
-        <v/>
+        <v>Apache License 2.0</v>
       </c>
     </row>
     <row r="88">
@@ -7759,7 +7761,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B88" t="str">
-        <v>org.springframework.boot:spring-boot-starter-actuator</v>
+        <v>org.springframework.boot:spring-boot-starter-data-jpa</v>
       </c>
       <c r="C88" t="str">
         <v>MAVEN</v>
@@ -7776,7 +7778,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B89" t="str">
-        <v>org.springframework.boot:spring-boot-starter-data-jpa</v>
+        <v>org.springframework.boot:spring-boot-starter-security</v>
       </c>
       <c r="C89" t="str">
         <v>MAVEN</v>
@@ -7793,7 +7795,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B90" t="str">
-        <v>org.springframework.boot:spring-boot-starter-security</v>
+        <v>org.springframework.boot:spring-boot-starter-test</v>
       </c>
       <c r="C90" t="str">
         <v>MAVEN</v>
@@ -7810,7 +7812,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B91" t="str">
-        <v>org.springframework.boot:spring-boot-starter-test</v>
+        <v>org.springframework.boot:spring-boot-starter-thymeleaf</v>
       </c>
       <c r="C91" t="str">
         <v>MAVEN</v>
@@ -7827,7 +7829,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B92" t="str">
-        <v>org.springframework.boot:spring-boot-starter-thymeleaf</v>
+        <v>org.springframework.boot:spring-boot-starter-undertow</v>
       </c>
       <c r="C92" t="str">
         <v>MAVEN</v>
@@ -7844,7 +7846,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B93" t="str">
-        <v>org.springframework.boot:spring-boot-starter-undertow</v>
+        <v>org.springframework.boot:spring-boot-starter-web</v>
       </c>
       <c r="C93" t="str">
         <v>MAVEN</v>
@@ -7861,7 +7863,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B94" t="str">
-        <v>org.springframework.boot:spring-boot-starter-web</v>
+        <v>org.springframework.security:spring-security-test</v>
       </c>
       <c r="C94" t="str">
         <v>MAVEN</v>
@@ -7878,7 +7880,7 @@
         <v>webgoat-container/pom.xml</v>
       </c>
       <c r="B95" t="str">
-        <v>org.springframework.security:spring-security-test</v>
+        <v>org.thymeleaf.extras:thymeleaf-extras-springsecurity5</v>
       </c>
       <c r="C95" t="str">
         <v>MAVEN</v>
@@ -7887,24 +7889,24 @@
         <v/>
       </c>
       <c r="E95" t="str">
-        <v>Apache License 2.0</v>
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>webgoat-container/pom.xml</v>
+        <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B96" t="str">
-        <v>org.thymeleaf.extras:thymeleaf-extras-springsecurity5</v>
+        <v>io.github.bonigarcia:webdrivermanager</v>
       </c>
       <c r="C96" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D96" t="str">
-        <v/>
+        <v>= 4.3.1</v>
       </c>
       <c r="E96" t="str">
-        <v/>
+        <v>Apache License 2.0</v>
       </c>
     </row>
     <row r="97">
@@ -7912,13 +7914,13 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B97" t="str">
-        <v>io.github.bonigarcia:webdrivermanager</v>
+        <v>io.rest-assured:rest-assured</v>
       </c>
       <c r="C97" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D97" t="str">
-        <v>= 4.3.1</v>
+        <v/>
       </c>
       <c r="E97" t="str">
         <v>Apache License 2.0</v>
@@ -7929,7 +7931,7 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B98" t="str">
-        <v>io.rest-assured:rest-assured</v>
+        <v>org.apache.maven.plugins:maven-surefire-plugin</v>
       </c>
       <c r="C98" t="str">
         <v>MAVEN</v>
@@ -7938,7 +7940,7 @@
         <v/>
       </c>
       <c r="E98" t="str">
-        <v>Apache License 2.0</v>
+        <v/>
       </c>
     </row>
     <row r="99">
@@ -7946,13 +7948,13 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B99" t="str">
-        <v>org.apache.maven.plugins:maven-surefire-plugin</v>
+        <v>org.owasp.webgoat:webgoat-server</v>
       </c>
       <c r="C99" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D99" t="str">
-        <v/>
+        <v>= 8.2.3-SNAPSHOT</v>
       </c>
       <c r="E99" t="str">
         <v/>
@@ -7963,7 +7965,7 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B100" t="str">
-        <v>org.owasp.webgoat:webgoat-server</v>
+        <v>org.owasp.webgoat:webwolf</v>
       </c>
       <c r="C100" t="str">
         <v>MAVEN</v>
@@ -7980,16 +7982,16 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B101" t="str">
-        <v>org.owasp.webgoat:webwolf</v>
+        <v>org.seleniumhq.selenium:selenium-java</v>
       </c>
       <c r="C101" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D101" t="str">
-        <v>= 8.2.3-SNAPSHOT</v>
+        <v/>
       </c>
       <c r="E101" t="str">
-        <v/>
+        <v>Apache License 2.0</v>
       </c>
     </row>
     <row r="102">
@@ -7997,7 +7999,7 @@
         <v>webgoat-integration-tests/pom.xml</v>
       </c>
       <c r="B102" t="str">
-        <v>org.seleniumhq.selenium:selenium-java</v>
+        <v>org.springframework.boot:spring-boot-starter-test</v>
       </c>
       <c r="C102" t="str">
         <v>MAVEN</v>
@@ -8011,16 +8013,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>webgoat-integration-tests/pom.xml</v>
+        <v>webgoat-lessons/challenge/pom.xml</v>
       </c>
       <c r="B103" t="str">
-        <v>org.springframework.boot:spring-boot-starter-test</v>
+        <v>io.jsonwebtoken:jjwt</v>
       </c>
       <c r="C103" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D103" t="str">
-        <v/>
+        <v>= 0.9.1</v>
       </c>
       <c r="E103" t="str">
         <v>Apache License 2.0</v>
@@ -8031,13 +8033,13 @@
         <v>webgoat-lessons/challenge/pom.xml</v>
       </c>
       <c r="B104" t="str">
-        <v>io.jsonwebtoken:jjwt</v>
+        <v>org.springframework.boot:spring-boot-starter-test</v>
       </c>
       <c r="C104" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D104" t="str">
-        <v>= 0.9.1</v>
+        <v/>
       </c>
       <c r="E104" t="str">
         <v>Apache License 2.0</v>
@@ -8048,7 +8050,7 @@
         <v>webgoat-lessons/challenge/pom.xml</v>
       </c>
       <c r="B105" t="str">
-        <v>org.springframework.boot:spring-boot-starter-test</v>
+        <v>org.springframework.security:spring-security-test</v>
       </c>
       <c r="C105" t="str">
         <v>MAVEN</v>
@@ -8062,10 +8064,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>webgoat-lessons/challenge/pom.xml</v>
+        <v>webgoat-lessons/http-proxies/pom.xml</v>
       </c>
       <c r="B106" t="str">
-        <v>org.springframework.security:spring-security-test</v>
+        <v>org.springframework.boot:spring-boot-starter-test</v>
       </c>
       <c r="C106" t="str">
         <v>MAVEN</v>
@@ -8082,7 +8084,7 @@
         <v>webgoat-lessons/http-proxies/pom.xml</v>
       </c>
       <c r="B107" t="str">
-        <v>org.springframework.boot:spring-boot-starter-test</v>
+        <v>org.springframework.security:spring-security-test</v>
       </c>
       <c r="C107" t="str">
         <v>MAVEN</v>
@@ -8096,36 +8098,36 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>webgoat-lessons/http-proxies/pom.xml</v>
+        <v>webgoat-lessons/hijack-session/pom.xml</v>
       </c>
       <c r="B108" t="str">
-        <v>org.springframework.security:spring-security-test</v>
+        <v>org.jacoco:jacoco-maven-plugin</v>
       </c>
       <c r="C108" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D108" t="str">
-        <v/>
+        <v>= 0.8.7</v>
       </c>
       <c r="E108" t="str">
-        <v>Apache License 2.0</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>webgoat-lessons/hijack-session/pom.xml</v>
+        <v>webgoat-lessons/html-tampering/pom.xml</v>
       </c>
       <c r="B109" t="str">
-        <v>org.jacoco:jacoco-maven-plugin</v>
+        <v>org.springframework.boot:spring-boot-starter-test</v>
       </c>
       <c r="C109" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D109" t="str">
-        <v>= 0.8.7</v>
+        <v/>
       </c>
       <c r="E109" t="str">
-        <v>Other</v>
+        <v>Apache License 2.0</v>
       </c>
     </row>
     <row r="110">
@@ -8133,7 +8135,7 @@
         <v>webgoat-lessons/html-tampering/pom.xml</v>
       </c>
       <c r="B110" t="str">
-        <v>org.springframework.boot:spring-boot-starter-test</v>
+        <v>org.springframework.security:spring-security-test</v>
       </c>
       <c r="C110" t="str">
         <v>MAVEN</v>
@@ -8147,41 +8149,1389 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>webgoat-lessons/html-tampering/pom.xml</v>
+        <v>webgoat-lessons/cross-site-scripting/pom.xml</v>
       </c>
       <c r="B111" t="str">
-        <v>org.springframework.security:spring-security-test</v>
+        <v>org.jsoup:jsoup</v>
       </c>
       <c r="C111" t="str">
         <v>MAVEN</v>
       </c>
       <c r="D111" t="str">
-        <v/>
+        <v>= 1.14.2</v>
       </c>
       <c r="E111" t="str">
-        <v>Apache License 2.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>webgoat-lessons/cross-site-scripting/pom.xml</v>
-      </c>
-      <c r="B112" t="str">
-        <v>org.jsoup:jsoup</v>
-      </c>
-      <c r="C112" t="str">
-        <v>MAVEN</v>
-      </c>
-      <c r="D112" t="str">
-        <v>= 1.14.2</v>
-      </c>
-      <c r="E112" t="str">
         <v>MIT License</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E111"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>count packageName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Apache License 2.0</v>
+      </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v>BSD 2-Clause "Simplified" License</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MIT License</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Totals</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>pom.xml</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>docker/pom.xml</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>webwolf/pom.xml</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>webgoat-server/pom.xml</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>webgoat-lessons/pom.xml</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>.github/workflows/codeql-analysis.yml</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>.github/workflows/main.yml</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>webgoat-container/pom.xml</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>webgoat-integration-tests/pom.xml</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>webgoat-lessons/challenge/pom.xml</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>webgoat-lessons/http-proxies/pom.xml</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>webgoat-lessons/hijack-session/pom.xml</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>webgoat-lessons/html-tampering/pom.xml</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>webgoat-lessons/cross-site-scripting/pom.xml</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Totals</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G16"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>count html_url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>warning</v>
+      </c>
+      <c r="C1" t="str">
+        <v>note</v>
+      </c>
+      <c r="D1" t="str">
+        <v>error</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Totals</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>java/random-used-once</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>java/potentially-weak-cryptographic-algorithm</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>java/unsafe-get-resource</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>java/unused-parameter</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>java/non-static-nested-class</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>java/inefficient-empty-string-test</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>java/input-resource-leak</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>java/database-resource-leak</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>java/output-resource-leak</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>java/unused-format-argument</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>java/missing-space-in-concatenation</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>java/dereferenced-value-may-be-null</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>java/local-variable-is-never-read</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>java/unused-reference-type</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>java/uncaught-number-format-exception</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>java/ignored-error-status-of-call</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>java/call-to-object-tostring</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>java/deprecated-call</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>java/missing-override-annotation</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>java/path-injection</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>java/zipslip</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>java/spring-disabled-csrf-protection</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>java/sql-injection</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>java/missing-jwt-signature-check</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>java/concatenated-sql-query</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>java/reference-equality-on-strings</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>java/multiplication-of-remainder</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>java/non-null-boxed-variable</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>java/useless-tostring-call</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>java/index-out-of-bounds</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>java/xxe</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>java/insecure-cookie</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>java/unsafe-deserialization</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>java/stack-trace-exposure</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>java/weak-cryptographic-algorithm</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>java/ssrf</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>js/regex/missing-regexp-anchor</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>js/useless-assignment-to-property</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>js/unused-local-variable</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>js/missing-variable-declaration</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>js/useless-assignment-to-local</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>js/use-before-declaration</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>js/automatic-semicolon-insertion</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>js/index-out-of-bounds</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>js/unknown-directive</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>js/unneeded-defensive-code</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>js/whitespace-contradicts-precedence</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>js/useless-expression</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>js/trivial-conditional</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>js/loop-iteration-skipped-due-to-shifting</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>js/unused-loop-variable</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>js/unsafe-jquery-plugin</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>js/html-constructed-from-input</v>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>js/xss-through-dom</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>js/incomplete-sanitization</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Totals</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <v>144</v>
+      </c>
+      <c r="D57">
+        <v>46</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/alerts.xlsx
+++ b/alerts.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P294"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,30 +406,27 @@
         <v>severity</v>
       </c>
       <c r="H1" t="str">
-        <v>security severity</v>
+        <v>location</v>
       </c>
       <c r="I1" t="str">
-        <v>location</v>
+        <v>start-line</v>
       </c>
       <c r="J1" t="str">
-        <v>start-line</v>
+        <v>end-line</v>
       </c>
       <c r="K1" t="str">
-        <v>end-line</v>
+        <v>createdAt</v>
       </c>
       <c r="L1" t="str">
-        <v>createdAt</v>
+        <v>updatedAt</v>
       </c>
       <c r="M1" t="str">
-        <v>updatedAt</v>
+        <v>fixedAt</v>
       </c>
       <c r="N1" t="str">
-        <v>fixedAt</v>
+        <v>dismissedAt</v>
       </c>
       <c r="O1" t="str">
-        <v>dismissedAt</v>
-      </c>
-      <c r="P1" t="str">
         <v>dismissedBy</v>
       </c>
     </row>
@@ -453,27 +450,24 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G2" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H2" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I2" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/CryptoUtil.java</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
       </c>
       <c r="J2">
         <v>28</v>
       </c>
-      <c r="K2">
-        <v>28</v>
+      <c r="K2" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L2" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M2" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N2" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -497,27 +491,24 @@
         <v>java/potentially-weak-cryptographic-algorithm</v>
       </c>
       <c r="G3" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H3" t="str">
-        <v>high</v>
-      </c>
-      <c r="I3" t="str">
         <v>webgoat-lessons/missing-function-ac/src/main/java/org/owasp/webgoat/missing_ac/DisplayUser.java</v>
+      </c>
+      <c r="I3">
+        <v>49</v>
       </c>
       <c r="J3">
         <v>49</v>
       </c>
-      <c r="K3">
-        <v>49</v>
+      <c r="K3" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L3" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M3" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N3" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -543,22 +534,22 @@
       <c r="G4" t="str">
         <v>warning</v>
       </c>
-      <c r="I4" t="str">
+      <c r="H4" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadBase.java</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
       </c>
       <c r="J4">
         <v>79</v>
       </c>
-      <c r="K4">
-        <v>79</v>
+      <c r="K4" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L4" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M4" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N4" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -584,22 +575,22 @@
       <c r="G5" t="str">
         <v>note</v>
       </c>
-      <c r="I5" t="str">
+      <c r="H5" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/user/RegistrationController.java</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
       </c>
       <c r="J5">
         <v>46</v>
       </c>
-      <c r="K5">
-        <v>46</v>
+      <c r="K5" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L5" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M5" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N5" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -625,22 +616,22 @@
       <c r="G6" t="str">
         <v>note</v>
       </c>
-      <c r="I6" t="str">
+      <c r="H6" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/db/DataSourceResolver.java</v>
+      </c>
+      <c r="I6">
+        <v>89</v>
       </c>
       <c r="J6">
         <v>89</v>
       </c>
-      <c r="K6">
-        <v>89</v>
+      <c r="K6" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L6" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M6" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N6" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -666,22 +657,22 @@
       <c r="G7" t="str">
         <v>note</v>
       </c>
-      <c r="I7" t="str">
+      <c r="H7" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/db/DataSourceResolver.java</v>
+      </c>
+      <c r="I7">
+        <v>89</v>
       </c>
       <c r="J7">
         <v>89</v>
       </c>
-      <c r="K7">
-        <v>89</v>
+      <c r="K7" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L7" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M7" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N7" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -707,22 +698,22 @@
       <c r="G8" t="str">
         <v>note</v>
       </c>
-      <c r="I8" t="str">
+      <c r="H8" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/RegistrationController.java</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
-      <c r="K8">
-        <v>26</v>
+      <c r="K8" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L8" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M8" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N8" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -748,22 +739,22 @@
       <c r="G9" t="str">
         <v>note</v>
       </c>
-      <c r="I9" t="str">
+      <c r="H9" t="str">
         <v>webgoat-lessons/webgoat-lesson-template/src/main/java/org/owasp/webgoat/template/SampleAttack.java</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
       </c>
       <c r="J9">
         <v>50</v>
       </c>
-      <c r="K9">
-        <v>50</v>
+      <c r="K9" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L9" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M9" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N9" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -789,22 +780,22 @@
       <c r="G10" t="str">
         <v>note</v>
       </c>
-      <c r="I10" t="str">
+      <c r="H10" t="str">
         <v>webgoat-lessons/webgoat-lesson-template/src/main/java/org/owasp/webgoat/template/SampleAttack.java</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
       </c>
       <c r="J10">
         <v>66</v>
       </c>
-      <c r="K10">
-        <v>66</v>
+      <c r="K10" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L10" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M10" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N10" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -830,22 +821,22 @@
       <c r="G11" t="str">
         <v>note</v>
       </c>
-      <c r="I11" t="str">
+      <c r="H11" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileZipSlip.java</v>
+      </c>
+      <c r="I11">
+        <v>81</v>
       </c>
       <c r="J11">
         <v>81</v>
       </c>
-      <c r="K11">
-        <v>81</v>
+      <c r="K11" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L11" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M11" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N11" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -871,22 +862,22 @@
       <c r="G12" t="str">
         <v>note</v>
       </c>
-      <c r="I12" t="str">
+      <c r="H12" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/HammerHead.java</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
       </c>
       <c r="J12">
         <v>54</v>
       </c>
-      <c r="K12">
-        <v>54</v>
+      <c r="K12" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L12" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M12" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N12" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -912,22 +903,22 @@
       <c r="G13" t="str">
         <v>note</v>
       </c>
-      <c r="I13" t="str">
+      <c r="H13" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/HammerHead.java</v>
+      </c>
+      <c r="I13">
+        <v>54</v>
       </c>
       <c r="J13">
         <v>54</v>
       </c>
-      <c r="K13">
-        <v>54</v>
+      <c r="K13" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L13" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M13" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N13" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -953,22 +944,22 @@
       <c r="G14" t="str">
         <v>note</v>
       </c>
-      <c r="I14" t="str">
+      <c r="H14" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/HammerHead.java</v>
+      </c>
+      <c r="I14">
+        <v>54</v>
       </c>
       <c r="J14">
         <v>54</v>
       </c>
-      <c r="K14">
-        <v>54</v>
+      <c r="K14" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L14" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M14" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N14" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -994,22 +985,22 @@
       <c r="G15" t="str">
         <v>note</v>
       </c>
-      <c r="I15" t="str">
+      <c r="H15" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/requests/Requests.java</v>
+      </c>
+      <c r="I15">
+        <v>55</v>
       </c>
       <c r="J15">
         <v>55</v>
       </c>
-      <c r="K15">
-        <v>55</v>
+      <c r="K15" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L15" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M15" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N15" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1035,22 +1026,22 @@
       <c r="G16" t="str">
         <v>note</v>
       </c>
-      <c r="I16" t="str">
+      <c r="H16" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/FileServer.java</v>
+      </c>
+      <c r="I16">
+        <v>76</v>
       </c>
       <c r="J16">
         <v>76</v>
       </c>
-      <c r="K16">
-        <v>76</v>
+      <c r="K16" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L16" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M16" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N16" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1076,22 +1067,22 @@
       <c r="G17" t="str">
         <v>note</v>
       </c>
-      <c r="I17" t="str">
+      <c r="H17" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/Scoreboard.java</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
       </c>
       <c r="J17">
         <v>26</v>
       </c>
-      <c r="K17">
-        <v>26</v>
+      <c r="K17" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L17" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M17" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N17" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1117,22 +1108,22 @@
       <c r="G18" t="str">
         <v>note</v>
       </c>
-      <c r="I18" t="str">
+      <c r="H18" t="str">
         <v>webgoat-lessons/webgoat-lesson-template/src/main/java/org/owasp/webgoat/template/SampleAttack.java</v>
+      </c>
+      <c r="I18">
+        <v>71</v>
       </c>
       <c r="J18">
         <v>71</v>
       </c>
-      <c r="K18">
-        <v>71</v>
+      <c r="K18" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L18" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M18" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N18" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1158,22 +1149,22 @@
       <c r="G19" t="str">
         <v>note</v>
       </c>
-      <c r="I19" t="str">
+      <c r="H19" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/mitigation/Servers.java</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
       </c>
       <c r="J19">
         <v>45</v>
       </c>
-      <c r="K19">
-        <v>45</v>
+      <c r="K19" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L19" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M19" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N19" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1199,22 +1190,22 @@
       <c r="G20" t="str">
         <v>note</v>
       </c>
-      <c r="I20" t="str">
+      <c r="H20" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/service/ReportCardService.java</v>
+      </c>
+      <c r="I20">
+        <v>81</v>
       </c>
       <c r="J20">
         <v>81</v>
       </c>
-      <c r="K20">
-        <v>81</v>
+      <c r="K20" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L20" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M20" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N20" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1240,22 +1231,22 @@
       <c r="G21" t="str">
         <v>note</v>
       </c>
-      <c r="I21" t="str">
+      <c r="H21" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/service/ReportCardService.java</v>
+      </c>
+      <c r="I21">
+        <v>151</v>
       </c>
       <c r="J21">
         <v>151</v>
       </c>
-      <c r="K21">
-        <v>151</v>
+      <c r="K21" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L21" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M21" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N21" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1281,22 +1272,22 @@
       <c r="G22" t="str">
         <v>note</v>
       </c>
-      <c r="I22" t="str">
+      <c r="H22" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/java/org/owasp/webgoat/client_side_filtering/ShopEndpoint.java</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
       </c>
       <c r="J22">
         <v>42</v>
       </c>
-      <c r="K22">
-        <v>42</v>
+      <c r="K22" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L22" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M22" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N22" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1322,22 +1313,22 @@
       <c r="G23" t="str">
         <v>note</v>
       </c>
-      <c r="I23" t="str">
+      <c r="H23" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/java/org/owasp/webgoat/client_side_filtering/ShopEndpoint.java</v>
+      </c>
+      <c r="I23">
+        <v>61</v>
       </c>
       <c r="J23">
         <v>61</v>
       </c>
-      <c r="K23">
-        <v>61</v>
+      <c r="K23" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L23" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M23" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N23" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1363,22 +1354,22 @@
       <c r="G24" t="str">
         <v>note</v>
       </c>
-      <c r="I24" t="str">
+      <c r="H24" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/Flag.java</v>
+      </c>
+      <c r="I24">
+        <v>55</v>
       </c>
       <c r="J24">
         <v>55</v>
       </c>
-      <c r="K24">
-        <v>55</v>
+      <c r="K24" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L24" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M24" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N24" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1404,22 +1395,22 @@
       <c r="G25" t="str">
         <v>note</v>
       </c>
-      <c r="I25" t="str">
+      <c r="H25" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/lessons/CourseConfiguration.java</v>
+      </c>
+      <c r="I25">
+        <v>109</v>
       </c>
       <c r="J25">
         <v>109</v>
       </c>
-      <c r="K25">
-        <v>109</v>
+      <c r="K25" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L25" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M25" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N25" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1445,22 +1436,22 @@
       <c r="G26" t="str">
         <v>note</v>
       </c>
-      <c r="I26" t="str">
+      <c r="H26" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/lessons/Assignment.java</v>
+      </c>
+      <c r="I26">
+        <v>55</v>
       </c>
       <c r="J26">
         <v>55</v>
       </c>
-      <c r="K26">
-        <v>55</v>
+      <c r="K26" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L26" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M26" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N26" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1486,22 +1477,22 @@
       <c r="G27" t="str">
         <v>warning</v>
       </c>
-      <c r="I27" t="str">
+      <c r="H27" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileZipSlip.java</v>
+      </c>
+      <c r="I27">
+        <v>49</v>
       </c>
       <c r="J27">
         <v>49</v>
       </c>
-      <c r="K27">
-        <v>49</v>
+      <c r="K27" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L27" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M27" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N27" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1527,22 +1518,22 @@
       <c r="G28" t="str">
         <v>warning</v>
       </c>
-      <c r="I28" t="str">
+      <c r="H28" t="str">
         <v>webgoat-lessons/insecure-deserialization/src/main/java/org/dummy/insecure/framework/VulnerableTaskHolder.java</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
       </c>
       <c r="J28">
         <v>50</v>
       </c>
-      <c r="K28">
-        <v>50</v>
+      <c r="K28" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L28" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M28" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N28" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1568,22 +1559,22 @@
       <c r="G29" t="str">
         <v>warning</v>
       </c>
-      <c r="I29" t="str">
+      <c r="H29" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/AsciiDoctorTemplateResolver.java</v>
+      </c>
+      <c r="I29">
+        <v>84</v>
       </c>
       <c r="J29">
         <v>84</v>
       </c>
-      <c r="K29">
-        <v>84</v>
+      <c r="K29" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L29" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M29" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N29" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1609,22 +1600,22 @@
       <c r="G30" t="str">
         <v>warning</v>
       </c>
-      <c r="I30" t="str">
+      <c r="H30" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I30">
+        <v>67</v>
       </c>
       <c r="J30">
         <v>67</v>
       </c>
-      <c r="K30">
-        <v>67</v>
+      <c r="K30" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L30" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M30" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N30" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1650,22 +1641,22 @@
       <c r="G31" t="str">
         <v>warning</v>
       </c>
-      <c r="I31" t="str">
+      <c r="H31" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
       </c>
       <c r="J31">
         <v>59</v>
       </c>
-      <c r="K31">
-        <v>59</v>
+      <c r="K31" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L31" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M31" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N31" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1691,22 +1682,22 @@
       <c r="G32" t="str">
         <v>warning</v>
       </c>
-      <c r="I32" t="str">
+      <c r="H32" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I32">
+        <v>58</v>
       </c>
       <c r="J32">
         <v>58</v>
       </c>
-      <c r="K32">
-        <v>58</v>
+      <c r="K32" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L32" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M32" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N32" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1732,22 +1723,22 @@
       <c r="G33" t="str">
         <v>warning</v>
       </c>
-      <c r="I33" t="str">
+      <c r="H33" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge5/Assignment5.java</v>
+      </c>
+      <c r="I33">
+        <v>58</v>
       </c>
       <c r="J33">
         <v>58</v>
       </c>
-      <c r="K33">
-        <v>58</v>
+      <c r="K33" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L33" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M33" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N33" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1773,22 +1764,22 @@
       <c r="G34" t="str">
         <v>warning</v>
       </c>
-      <c r="I34" t="str">
+      <c r="H34" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge5/Assignment5.java</v>
+      </c>
+      <c r="I34">
+        <v>57</v>
       </c>
       <c r="J34">
         <v>57</v>
       </c>
-      <c r="K34">
-        <v>57</v>
+      <c r="K34" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L34" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M34" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N34" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1814,22 +1805,22 @@
       <c r="G35" t="str">
         <v>warning</v>
       </c>
-      <c r="I35" t="str">
+      <c r="H35" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadRetrieval.java</v>
+      </c>
+      <c r="I35">
+        <v>47</v>
       </c>
       <c r="J35">
         <v>47</v>
       </c>
-      <c r="K35">
-        <v>47</v>
+      <c r="K35" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L35" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M35" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N35" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1855,22 +1846,22 @@
       <c r="G36" t="str">
         <v>warning</v>
       </c>
-      <c r="I36" t="str">
+      <c r="H36" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/java/org/owasp/webgoat/client_side_filtering/Salaries.java</v>
+      </c>
+      <c r="I36">
+        <v>63</v>
       </c>
       <c r="J36">
         <v>63</v>
       </c>
-      <c r="K36">
-        <v>63</v>
+      <c r="K36" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L36" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M36" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N36" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1896,22 +1887,22 @@
       <c r="G37" t="str">
         <v>warning</v>
       </c>
-      <c r="I37" t="str">
+      <c r="H37" t="str">
         <v>webgoat-lessons/idor/src/main/java/org/owasp/webgoat/idor/IDORViewOwnProfile.java</v>
+      </c>
+      <c r="I37">
+        <v>57</v>
       </c>
       <c r="J37">
         <v>57</v>
       </c>
-      <c r="K37">
-        <v>57</v>
+      <c r="K37" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L37" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M37" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N37" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1937,22 +1928,22 @@
       <c r="G38" t="str">
         <v>note</v>
       </c>
-      <c r="I38" t="str">
+      <c r="H38" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/lessons/CourseConfiguration.java</v>
+      </c>
+      <c r="I38">
+        <v>80</v>
       </c>
       <c r="J38">
         <v>80</v>
       </c>
-      <c r="K38">
-        <v>80</v>
+      <c r="K38" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L38" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M38" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N38" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -1978,22 +1969,22 @@
       <c r="G39" t="str">
         <v>warning</v>
       </c>
-      <c r="I39" t="str">
+      <c r="H39" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/java/org/owasp/webgoat/client_side_filtering/Salaries.java</v>
+      </c>
+      <c r="I39">
+        <v>94</v>
       </c>
       <c r="J39">
         <v>94</v>
       </c>
-      <c r="K39">
-        <v>94</v>
+      <c r="K39" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L39" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M39" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N39" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2019,22 +2010,22 @@
       <c r="G40" t="str">
         <v>note</v>
       </c>
-      <c r="I40" t="str">
+      <c r="H40" t="str">
         <v>webgoat-lessons/jwt/src/test/java/org/owasp/webgoat/jwt/TokenTest.java</v>
+      </c>
+      <c r="I40">
+        <v>47</v>
       </c>
       <c r="J40">
         <v>47</v>
       </c>
-      <c r="K40">
-        <v>47</v>
+      <c r="K40" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L40" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M40" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N40" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2060,22 +2051,22 @@
       <c r="G41" t="str">
         <v>note</v>
       </c>
-      <c r="I41" t="str">
+      <c r="H41" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge8/Assignment8.java</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
       </c>
       <c r="J41">
         <v>39</v>
       </c>
-      <c r="K41">
-        <v>39</v>
+      <c r="K41" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L41" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M41" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N41" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2101,22 +2092,22 @@
       <c r="G42" t="str">
         <v>note</v>
       </c>
-      <c r="I42" t="str">
+      <c r="H42" t="str">
         <v>webwolf/src/test/java/org/owasp/webwolf/jwt/JWTTokenTest.java</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
       </c>
       <c r="J42">
         <v>8</v>
       </c>
-      <c r="K42">
-        <v>8</v>
+      <c r="K42" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L42" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M42" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N42" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2142,22 +2133,22 @@
       <c r="G43" t="str">
         <v>note</v>
       </c>
-      <c r="I43" t="str">
+      <c r="H43" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/Flag.java</v>
+      </c>
+      <c r="I43">
+        <v>55</v>
       </c>
       <c r="J43">
         <v>55</v>
       </c>
-      <c r="K43">
-        <v>55</v>
+      <c r="K43" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L43" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M43" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N43" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2183,22 +2174,22 @@
       <c r="G44" t="str">
         <v>note</v>
       </c>
-      <c r="I44" t="str">
+      <c r="H44" t="str">
         <v>webgoat-server/src/main/java/org/owasp/webgoat/StartWebGoat.java</v>
+      </c>
+      <c r="I44">
+        <v>54</v>
       </c>
       <c r="J44">
         <v>54</v>
       </c>
-      <c r="K44">
-        <v>54</v>
+      <c r="K44" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L44" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M44" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N44" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2224,22 +2215,22 @@
       <c r="G45" t="str">
         <v>note</v>
       </c>
-      <c r="I45" t="str">
+      <c r="H45" t="str">
         <v>webgoat-server/src/main/java/org/owasp/webgoat/StartWebGoat.java</v>
+      </c>
+      <c r="I45">
+        <v>53</v>
       </c>
       <c r="J45">
         <v>53</v>
       </c>
-      <c r="K45">
-        <v>53</v>
+      <c r="K45" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L45" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M45" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N45" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2265,22 +2256,22 @@
       <c r="G46" t="str">
         <v>note</v>
       </c>
-      <c r="I46" t="str">
+      <c r="H46" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/Flag.java</v>
+      </c>
+      <c r="I46">
+        <v>79</v>
       </c>
       <c r="J46">
         <v>79</v>
       </c>
-      <c r="K46">
-        <v>79</v>
+      <c r="K46" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L46" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M46" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N46" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2306,22 +2297,22 @@
       <c r="G47" t="str">
         <v>note</v>
       </c>
-      <c r="I47" t="str">
+      <c r="H47" t="str">
         <v>webgoat-lessons/xxe/src/main/java/org/owasp/webgoat/xxe/BlindSendFileAssignment.java</v>
+      </c>
+      <c r="I47">
+        <v>65</v>
       </c>
       <c r="J47">
         <v>65</v>
       </c>
-      <c r="K47">
-        <v>65</v>
+      <c r="K47" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L47" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M47" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N47" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2347,22 +2338,22 @@
       <c r="G48" t="str">
         <v>note</v>
       </c>
-      <c r="I48" t="str">
+      <c r="H48" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadBase.java</v>
+      </c>
+      <c r="I48">
+        <v>37</v>
       </c>
       <c r="J48">
         <v>37</v>
       </c>
-      <c r="K48">
-        <v>37</v>
+      <c r="K48" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L48" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M48" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N48" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2388,22 +2379,22 @@
       <c r="G49" t="str">
         <v>note</v>
       </c>
-      <c r="I49" t="str">
+      <c r="H49" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/java/org/owasp/webgoat/client_side_filtering/Salaries.java</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
       </c>
       <c r="J49">
         <v>60</v>
       </c>
-      <c r="K49">
-        <v>60</v>
+      <c r="K49" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L49" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M49" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N49" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2429,22 +2420,22 @@
       <c r="G50" t="str">
         <v>note</v>
       </c>
-      <c r="I50" t="str">
+      <c r="H50" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/CSRFTest.java</v>
+      </c>
+      <c r="I50">
+        <v>184</v>
       </c>
       <c r="J50">
         <v>184</v>
       </c>
-      <c r="K50">
-        <v>184</v>
+      <c r="K50" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L50" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M50" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N50" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2470,22 +2461,22 @@
       <c r="G51" t="str">
         <v>note</v>
       </c>
-      <c r="I51" t="str">
+      <c r="H51" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I51">
+        <v>82</v>
       </c>
       <c r="J51">
         <v>82</v>
       </c>
-      <c r="K51">
-        <v>82</v>
+      <c r="K51" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L51" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M51" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N51" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2511,22 +2502,22 @@
       <c r="G52" t="str">
         <v>note</v>
       </c>
-      <c r="I52" t="str">
+      <c r="H52" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I52">
+        <v>82</v>
       </c>
       <c r="J52">
         <v>82</v>
       </c>
-      <c r="K52">
-        <v>82</v>
+      <c r="K52" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L52" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M52" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N52" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2552,22 +2543,22 @@
       <c r="G53" t="str">
         <v>note</v>
       </c>
-      <c r="I53" t="str">
+      <c r="H53" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I53">
+        <v>82</v>
       </c>
       <c r="J53">
         <v>82</v>
       </c>
-      <c r="K53">
-        <v>82</v>
+      <c r="K53" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L53" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M53" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N53" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2593,22 +2584,22 @@
       <c r="G54" t="str">
         <v>note</v>
       </c>
-      <c r="I54" t="str">
+      <c r="H54" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadBase.java</v>
+      </c>
+      <c r="I54">
+        <v>27</v>
       </c>
       <c r="J54">
         <v>27</v>
       </c>
-      <c r="K54">
-        <v>27</v>
+      <c r="K54" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L54" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M54" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N54" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2634,22 +2625,22 @@
       <c r="G55" t="str">
         <v>note</v>
       </c>
-      <c r="I55" t="str">
+      <c r="H55" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/service/LabelService.java</v>
+      </c>
+      <c r="I55">
+        <v>76</v>
       </c>
       <c r="J55">
         <v>76</v>
       </c>
-      <c r="K55">
-        <v>76</v>
+      <c r="K55" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L55" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M55" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N55" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2675,22 +2666,22 @@
       <c r="G56" t="str">
         <v>note</v>
       </c>
-      <c r="I56" t="str">
+      <c r="H56" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/AsciiDoctorTemplateResolver.java</v>
+      </c>
+      <c r="I56">
+        <v>84</v>
       </c>
       <c r="J56">
         <v>84</v>
       </c>
-      <c r="K56">
-        <v>84</v>
+      <c r="K56" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L56" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M56" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N56" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2716,22 +2707,22 @@
       <c r="G57" t="str">
         <v>note</v>
       </c>
-      <c r="I57" t="str">
+      <c r="H57" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/user/WebGoatUser.java</v>
+      </c>
+      <c r="I57">
+        <v>62</v>
       </c>
       <c r="J57">
         <v>62</v>
       </c>
-      <c r="K57">
-        <v>62</v>
+      <c r="K57" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L57" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M57" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N57" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2757,22 +2748,22 @@
       <c r="G58" t="str">
         <v>note</v>
       </c>
-      <c r="I58" t="str">
+      <c r="H58" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/user/WebGoatUser.java</v>
+      </c>
+      <c r="I58">
+        <v>87</v>
       </c>
       <c r="J58">
         <v>87</v>
       </c>
-      <c r="K58">
-        <v>87</v>
+      <c r="K58" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L58" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M58" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N58" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2798,22 +2789,22 @@
       <c r="G59" t="str">
         <v>note</v>
       </c>
-      <c r="I59" t="str">
+      <c r="H59" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/user/WebGoatUser.java</v>
+      </c>
+      <c r="I59">
+        <v>92</v>
       </c>
       <c r="J59">
         <v>92</v>
       </c>
-      <c r="K59">
-        <v>92</v>
+      <c r="K59" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L59" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M59" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N59" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2839,22 +2830,22 @@
       <c r="G60" t="str">
         <v>note</v>
       </c>
-      <c r="I60" t="str">
+      <c r="H60" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I60">
+        <v>35</v>
       </c>
       <c r="J60">
         <v>35</v>
       </c>
-      <c r="K60">
-        <v>35</v>
+      <c r="K60" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L60" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M60" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N60" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2880,22 +2871,22 @@
       <c r="G61" t="str">
         <v>note</v>
       </c>
-      <c r="I61" t="str">
+      <c r="H61" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I61">
+        <v>40</v>
       </c>
       <c r="J61">
         <v>40</v>
       </c>
-      <c r="K61">
-        <v>40</v>
+      <c r="K61" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L61" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M61" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N61" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2921,22 +2912,22 @@
       <c r="G62" t="str">
         <v>note</v>
       </c>
-      <c r="I62" t="str">
+      <c r="H62" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I62">
+        <v>45</v>
       </c>
       <c r="J62">
         <v>45</v>
       </c>
-      <c r="K62">
-        <v>45</v>
+      <c r="K62" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L62" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M62" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N62" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -2962,22 +2953,22 @@
       <c r="G63" t="str">
         <v>note</v>
       </c>
-      <c r="I63" t="str">
+      <c r="H63" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
       </c>
       <c r="J63">
         <v>50</v>
       </c>
-      <c r="K63">
-        <v>50</v>
+      <c r="K63" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L63" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M63" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N63" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3003,22 +2994,22 @@
       <c r="G64" t="str">
         <v>note</v>
       </c>
-      <c r="I64" t="str">
+      <c r="H64" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I64">
+        <v>55</v>
       </c>
       <c r="J64">
         <v>55</v>
       </c>
-      <c r="K64">
-        <v>55</v>
+      <c r="K64" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L64" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M64" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N64" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3044,22 +3035,22 @@
       <c r="G65" t="str">
         <v>note</v>
       </c>
-      <c r="I65" t="str">
+      <c r="H65" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I65">
+        <v>60</v>
       </c>
       <c r="J65">
         <v>60</v>
       </c>
-      <c r="K65">
-        <v>60</v>
+      <c r="K65" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L65" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M65" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N65" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3085,22 +3076,22 @@
       <c r="G66" t="str">
         <v>note</v>
       </c>
-      <c r="I66" t="str">
+      <c r="H66" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I66">
+        <v>65</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
-      <c r="K66">
-        <v>65</v>
+      <c r="K66" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L66" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M66" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N66" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3126,22 +3117,22 @@
       <c r="G67" t="str">
         <v>note</v>
       </c>
-      <c r="I67" t="str">
+      <c r="H67" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/ContactImpl.java</v>
+      </c>
+      <c r="I67">
+        <v>70</v>
       </c>
       <c r="J67">
         <v>70</v>
       </c>
-      <c r="K67">
-        <v>70</v>
+      <c r="K67" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L67" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M67" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N67" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3167,22 +3158,22 @@
       <c r="G68" t="str">
         <v>note</v>
       </c>
-      <c r="I68" t="str">
+      <c r="H68" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/WebGoatUser.java</v>
+      </c>
+      <c r="I68">
+        <v>46</v>
       </c>
       <c r="J68">
         <v>46</v>
       </c>
-      <c r="K68">
-        <v>46</v>
+      <c r="K68" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L68" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M68" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N68" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3208,22 +3199,22 @@
       <c r="G69" t="str">
         <v>note</v>
       </c>
-      <c r="I69" t="str">
+      <c r="H69" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/WebGoatUser.java</v>
+      </c>
+      <c r="I69">
+        <v>54</v>
       </c>
       <c r="J69">
         <v>54</v>
       </c>
-      <c r="K69">
-        <v>54</v>
+      <c r="K69" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L69" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M69" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N69" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3249,22 +3240,22 @@
       <c r="G70" t="str">
         <v>note</v>
       </c>
-      <c r="I70" t="str">
+      <c r="H70" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/WebGoatUser.java</v>
+      </c>
+      <c r="I70">
+        <v>58</v>
       </c>
       <c r="J70">
         <v>58</v>
       </c>
-      <c r="K70">
-        <v>58</v>
+      <c r="K70" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L70" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M70" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N70" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3290,22 +3281,22 @@
       <c r="G71" t="str">
         <v>note</v>
       </c>
-      <c r="I71" t="str">
+      <c r="H71" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileZipSlip.java</v>
+      </c>
+      <c r="I71">
+        <v>75</v>
       </c>
       <c r="J71">
         <v>75</v>
       </c>
-      <c r="K71">
-        <v>75</v>
+      <c r="K71" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L71" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M71" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N71" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3331,22 +3322,22 @@
       <c r="G72" t="str">
         <v>note</v>
       </c>
-      <c r="I72" t="str">
+      <c r="H72" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadBase.java</v>
+      </c>
+      <c r="I72">
+        <v>98</v>
       </c>
       <c r="J72">
         <v>98</v>
       </c>
-      <c r="K72">
-        <v>98</v>
+      <c r="K72" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L72" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M72" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N72" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3372,22 +3363,22 @@
       <c r="G73" t="str">
         <v>note</v>
       </c>
-      <c r="I73" t="str">
+      <c r="H73" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/lessons/Lesson.java</v>
+      </c>
+      <c r="I73">
+        <v>109</v>
       </c>
       <c r="J73">
         <v>109</v>
       </c>
-      <c r="K73">
-        <v>109</v>
+      <c r="K73" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L73" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M73" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N73" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3411,27 +3402,24 @@
         <v>java/path-injection</v>
       </c>
       <c r="G74" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H74" t="str">
-        <v>high</v>
-      </c>
-      <c r="I74" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/FileServer.java</v>
+      </c>
+      <c r="I74">
+        <v>68</v>
       </c>
       <c r="J74">
         <v>68</v>
       </c>
-      <c r="K74">
-        <v>68</v>
+      <c r="K74" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L74" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M74" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N74" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3455,27 +3443,24 @@
         <v>java/path-injection</v>
       </c>
       <c r="G75" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H75" t="str">
-        <v>high</v>
-      </c>
-      <c r="I75" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/FileServer.java</v>
+      </c>
+      <c r="I75">
+        <v>67</v>
       </c>
       <c r="J75">
         <v>67</v>
       </c>
-      <c r="K75">
-        <v>67</v>
+      <c r="K75" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L75" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M75" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N75" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3499,27 +3484,24 @@
         <v>java/path-injection</v>
       </c>
       <c r="G76" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H76" t="str">
-        <v>high</v>
-      </c>
-      <c r="I76" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileZipSlip.java</v>
+      </c>
+      <c r="I76">
+        <v>47</v>
       </c>
       <c r="J76">
         <v>47</v>
       </c>
-      <c r="K76">
-        <v>47</v>
+      <c r="K76" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L76" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M76" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N76" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3543,27 +3525,24 @@
         <v>java/path-injection</v>
       </c>
       <c r="G77" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H77" t="str">
-        <v>high</v>
-      </c>
-      <c r="I77" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadRetrieval.java</v>
+      </c>
+      <c r="I77">
+        <v>78</v>
       </c>
       <c r="J77">
         <v>78</v>
       </c>
-      <c r="K77">
-        <v>78</v>
+      <c r="K77" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L77" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M77" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N77" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3587,27 +3566,24 @@
         <v>java/path-injection</v>
       </c>
       <c r="G78" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H78" t="str">
-        <v>high</v>
-      </c>
-      <c r="I78" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadBase.java</v>
+      </c>
+      <c r="I78">
+        <v>36</v>
       </c>
       <c r="J78">
         <v>36</v>
       </c>
-      <c r="K78">
-        <v>36</v>
+      <c r="K78" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L78" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M78" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N78" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3631,27 +3607,24 @@
         <v>java/zipslip</v>
       </c>
       <c r="G79" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H79" t="str">
-        <v>high</v>
-      </c>
-      <c r="I79" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileZipSlip.java</v>
+      </c>
+      <c r="I79">
+        <v>53</v>
       </c>
       <c r="J79">
         <v>53</v>
       </c>
-      <c r="K79">
-        <v>53</v>
+      <c r="K79" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L79" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M79" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N79" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3675,27 +3648,24 @@
         <v>java/spring-disabled-csrf-protection</v>
       </c>
       <c r="G80" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H80" t="str">
-        <v>high</v>
-      </c>
-      <c r="I80" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/WebSecurityConfig.java</v>
+      </c>
+      <c r="I80">
+        <v>48</v>
       </c>
       <c r="J80">
         <v>48</v>
       </c>
-      <c r="K80">
-        <v>48</v>
+      <c r="K80" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L80" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M80" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N80" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3719,27 +3689,24 @@
         <v>java/spring-disabled-csrf-protection</v>
       </c>
       <c r="G81" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H81" t="str">
-        <v>high</v>
-      </c>
-      <c r="I81" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/WebSecurityConfig.java</v>
+      </c>
+      <c r="I81">
+        <v>58</v>
       </c>
       <c r="J81">
         <v>58</v>
       </c>
-      <c r="K81">
-        <v>58</v>
+      <c r="K81" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L81" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M81" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N81" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3763,27 +3730,24 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G82" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H82" t="str">
-        <v>high</v>
-      </c>
-      <c r="I82" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/mitigation/Servers.java</v>
+      </c>
+      <c r="I82">
+        <v>104</v>
       </c>
       <c r="J82">
         <v>104</v>
       </c>
-      <c r="K82">
-        <v>104</v>
+      <c r="K82" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L82" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M82" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N82" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3807,27 +3771,24 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G83" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H83" t="str">
-        <v>high</v>
-      </c>
-      <c r="I83" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallenge.java</v>
+      </c>
+      <c r="I83">
+        <v>59</v>
       </c>
       <c r="J83">
         <v>59</v>
       </c>
-      <c r="K83">
-        <v>59</v>
+      <c r="K83" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L83" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M83" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N83" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3851,27 +3812,24 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G84" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H84" t="str">
-        <v>high</v>
-      </c>
-      <c r="I84" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge5/Assignment5.java</v>
+      </c>
+      <c r="I84">
+        <v>57</v>
       </c>
       <c r="J84">
         <v>57</v>
       </c>
-      <c r="K84">
-        <v>57</v>
+      <c r="K84" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L84" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M84" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N84" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3895,27 +3853,24 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G85" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H85" t="str">
-        <v>high</v>
-      </c>
-      <c r="I85" t="str">
         <v>webgoat-lessons/jwt/src/test/java/org/owasp/webgoat/jwt/TokenTest.java</v>
       </c>
+      <c r="I85">
+        <v>48</v>
+      </c>
       <c r="J85">
-        <v>48</v>
-      </c>
-      <c r="K85">
         <v>53</v>
       </c>
+      <c r="K85" t="str">
+        <v>2021-12-20T07:20:14Z</v>
+      </c>
       <c r="L85" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M85" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N85" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3939,27 +3894,24 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G86" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H86" t="str">
-        <v>high</v>
-      </c>
-      <c r="I86" t="str">
         <v>webgoat-lessons/jwt/src/test/java/org/owasp/webgoat/jwt/TokenTest.java</v>
+      </c>
+      <c r="I86">
+        <v>47</v>
       </c>
       <c r="J86">
         <v>47</v>
       </c>
-      <c r="K86">
-        <v>47</v>
+      <c r="K86" t="str">
+        <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="L86" t="str">
         <v>2021-12-20T07:20:14Z</v>
       </c>
       <c r="M86" t="str">
-        <v>2021-12-20T07:20:14Z</v>
-      </c>
-      <c r="N86" t="str">
         <v>2021-12-22T06:48:37.032371000Z</v>
       </c>
     </row>
@@ -3983,24 +3935,21 @@
         <v>java/concatenated-sql-query</v>
       </c>
       <c r="G87" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H87" t="str">
-        <v>high</v>
-      </c>
-      <c r="I87" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson8.java</v>
+      </c>
+      <c r="I87">
+        <v>138</v>
       </c>
       <c r="J87">
         <v>138</v>
       </c>
-      <c r="K87">
-        <v>138</v>
+      <c r="K87" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L87" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M87" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4024,24 +3973,21 @@
         <v>java/concatenated-sql-query</v>
       </c>
       <c r="G88" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H88" t="str">
-        <v>high</v>
-      </c>
-      <c r="I88" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTFinalEndpoint.java</v>
+      </c>
+      <c r="I88">
+        <v>94</v>
       </c>
       <c r="J88">
         <v>94</v>
       </c>
-      <c r="K88">
-        <v>94</v>
+      <c r="K88" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L88" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M88" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4065,24 +4011,21 @@
         <v>java/potentially-weak-cryptographic-algorithm</v>
       </c>
       <c r="G89" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H89" t="str">
-        <v>high</v>
-      </c>
-      <c r="I89" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/HashingAssignment.java</v>
+      </c>
+      <c r="I89">
+        <v>103</v>
       </c>
       <c r="J89">
         <v>103</v>
       </c>
-      <c r="K89">
-        <v>103</v>
+      <c r="K89" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L89" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M89" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4108,19 +4051,19 @@
       <c r="G90" t="str">
         <v>warning</v>
       </c>
-      <c r="I90" t="str">
+      <c r="H90" t="str">
         <v>webgoat-lessons/csrf/src/main/java/org/owasp/webgoat/csrf/ForgedReviews.java</v>
+      </c>
+      <c r="I90">
+        <v>103</v>
       </c>
       <c r="J90">
         <v>103</v>
       </c>
-      <c r="K90">
-        <v>103</v>
+      <c r="K90" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L90" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M90" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4144,24 +4087,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G91" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H91" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I91" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTSecretKeyEndpoint.java</v>
+      </c>
+      <c r="I91">
+        <v>55</v>
       </c>
       <c r="J91">
         <v>55</v>
       </c>
-      <c r="K91">
-        <v>55</v>
+      <c r="K91" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L91" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M91" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4185,24 +4125,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G92" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H92" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I92" t="str">
         <v>webgoat-lessons/hijack-session/src/main/java/org/owasp/webgoat/hijacksession/cas/HijackSessionAuthenticationProvider.java</v>
+      </c>
+      <c r="I92">
+        <v>51</v>
       </c>
       <c r="J92">
         <v>51</v>
       </c>
-      <c r="K92">
-        <v>51</v>
+      <c r="K92" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L92" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M92" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4226,24 +4163,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G93" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H93" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I93" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/HashingAssignment.java</v>
+      </c>
+      <c r="I93">
+        <v>73</v>
       </c>
       <c r="J93">
         <v>73</v>
       </c>
-      <c r="K93">
-        <v>73</v>
+      <c r="K93" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L93" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M93" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4267,24 +4201,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G94" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H94" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I94" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/HashingAssignment.java</v>
+      </c>
+      <c r="I94">
+        <v>54</v>
       </c>
       <c r="J94">
         <v>54</v>
       </c>
-      <c r="K94">
-        <v>54</v>
+      <c r="K94" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L94" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M94" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4308,24 +4239,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G95" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H95" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I95" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/EncodingAssignment.java</v>
+      </c>
+      <c r="I95">
+        <v>52</v>
       </c>
       <c r="J95">
         <v>52</v>
       </c>
-      <c r="K95">
-        <v>52</v>
+      <c r="K95" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L95" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M95" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4349,24 +4277,21 @@
         <v>java/random-used-once</v>
       </c>
       <c r="G96" t="str">
-        <v>warning</v>
+        <v>critical</v>
       </c>
       <c r="H96" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I96" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge1/ImageServlet.java</v>
+      </c>
+      <c r="I96">
+        <v>19</v>
       </c>
       <c r="J96">
         <v>19</v>
       </c>
-      <c r="K96">
-        <v>19</v>
+      <c r="K96" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L96" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M96" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4392,19 +4317,19 @@
       <c r="G97" t="str">
         <v>warning</v>
       </c>
-      <c r="I97" t="str">
+      <c r="H97" t="str">
         <v>webgoat-lessons/secure-passwords/src/main/java/org/owasp/webgoat/secure_password/SecurePasswordsAssignment.java</v>
+      </c>
+      <c r="I97">
+        <v>90</v>
       </c>
       <c r="J97">
         <v>90</v>
       </c>
-      <c r="K97">
-        <v>90</v>
+      <c r="K97" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L97" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M97" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4430,19 +4355,19 @@
       <c r="G98" t="str">
         <v>note</v>
       </c>
-      <c r="I98" t="str">
+      <c r="H98" t="str">
         <v>webgoat-container/src/test/java/org/owasp/webgoat/users/UserTrackerRepositoryTest.java</v>
+      </c>
+      <c r="I98">
+        <v>19</v>
       </c>
       <c r="J98">
         <v>19</v>
       </c>
-      <c r="K98">
-        <v>19</v>
+      <c r="K98" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L98" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M98" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4468,19 +4393,19 @@
       <c r="G99" t="str">
         <v>note</v>
       </c>
-      <c r="I99" t="str">
+      <c r="H99" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/mitigation/SqlInjectionLesson10b.java</v>
+      </c>
+      <c r="I99">
+        <v>117</v>
       </c>
       <c r="J99">
         <v>117</v>
       </c>
-      <c r="K99">
-        <v>117</v>
+      <c r="K99" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L99" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M99" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4506,19 +4431,19 @@
       <c r="G100" t="str">
         <v>note</v>
       </c>
-      <c r="I100" t="str">
+      <c r="H100" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge7/MD5.java</v>
+      </c>
+      <c r="I100">
+        <v>446</v>
       </c>
       <c r="J100">
         <v>446</v>
       </c>
-      <c r="K100">
-        <v>446</v>
+      <c r="K100" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L100" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M100" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4544,19 +4469,19 @@
       <c r="G101" t="str">
         <v>note</v>
       </c>
-      <c r="I101" t="str">
+      <c r="H101" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5b.java</v>
+      </c>
+      <c r="I101">
+        <v>51</v>
       </c>
       <c r="J101">
         <v>51</v>
       </c>
-      <c r="K101">
-        <v>51</v>
+      <c r="K101" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L101" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M101" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4582,19 +4507,19 @@
       <c r="G102" t="str">
         <v>note</v>
       </c>
-      <c r="I102" t="str">
+      <c r="H102" t="str">
         <v>webgoat-lessons/logging/src/main/java/org/owasp/webgoat/logging/LogSpoofingTask.java</v>
+      </c>
+      <c r="I102">
+        <v>38</v>
       </c>
       <c r="J102">
         <v>38</v>
       </c>
-      <c r="K102">
-        <v>38</v>
+      <c r="K102" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L102" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M102" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4620,19 +4545,19 @@
       <c r="G103" t="str">
         <v>note</v>
       </c>
-      <c r="I103" t="str">
+      <c r="H103" t="str">
         <v>webgoat-lessons/idor/src/main/java/org/owasp/webgoat/idor/IDORViewOtherProfile.java</v>
+      </c>
+      <c r="I103">
+        <v>48</v>
       </c>
       <c r="J103">
         <v>48</v>
       </c>
-      <c r="K103">
-        <v>48</v>
+      <c r="K103" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L103" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M103" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4658,19 +4583,19 @@
       <c r="G104" t="str">
         <v>note</v>
       </c>
-      <c r="I104" t="str">
+      <c r="H104" t="str">
         <v>webgoat-lessons/chrome-dev-tools/src/main/java/org/owasp/webgoat/chrome_dev_tools/NetworkLesson.java</v>
+      </c>
+      <c r="I104">
+        <v>57</v>
       </c>
       <c r="J104">
         <v>57</v>
       </c>
-      <c r="K104">
-        <v>57</v>
+      <c r="K104" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L104" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M104" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4696,19 +4621,19 @@
       <c r="G105" t="str">
         <v>note</v>
       </c>
-      <c r="I105" t="str">
+      <c r="H105" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge1/Assignment1.java</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
       </c>
       <c r="J105">
         <v>50</v>
       </c>
-      <c r="K105">
-        <v>50</v>
+      <c r="K105" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L105" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M105" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4734,19 +4659,19 @@
       <c r="G106" t="str">
         <v>note</v>
       </c>
-      <c r="I106" t="str">
+      <c r="H106" t="str">
         <v>webgoat-lessons/auth-bypass/src/main/java/org/owasp/webgoat/auth_bypass/VerifyAccount.java</v>
+      </c>
+      <c r="I106">
+        <v>59</v>
       </c>
       <c r="J106">
         <v>59</v>
       </c>
-      <c r="K106">
-        <v>59</v>
+      <c r="K106" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L106" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M106" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4772,19 +4697,19 @@
       <c r="G107" t="str">
         <v>note</v>
       </c>
-      <c r="I107" t="str">
+      <c r="H107" t="str">
         <v>webgoat-lessons/auth-bypass/src/main/java/org/owasp/webgoat/auth_bypass/AccountVerificationHelper.java</v>
+      </c>
+      <c r="I107">
+        <v>69</v>
       </c>
       <c r="J107">
         <v>69</v>
       </c>
-      <c r="K107">
-        <v>69</v>
+      <c r="K107" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L107" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M107" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4810,19 +4735,19 @@
       <c r="G108" t="str">
         <v>note</v>
       </c>
-      <c r="I108" t="str">
+      <c r="H108" t="str">
         <v>webgoat-lessons/spoof-cookie/src/test/java/org/owasp/webgoat/spoofcookie/encoders/EncDecTest.java</v>
+      </c>
+      <c r="I108">
+        <v>44</v>
       </c>
       <c r="J108">
         <v>44</v>
       </c>
-      <c r="K108">
-        <v>44</v>
+      <c r="K108" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L108" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M108" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4848,19 +4773,19 @@
       <c r="G109" t="str">
         <v>note</v>
       </c>
-      <c r="I109" t="str">
+      <c r="H109" t="str">
         <v>webgoat-container/src/test/java/org/owasp/webgoat/session/LessonTrackerTest.java</v>
+      </c>
+      <c r="I109">
+        <v>45</v>
       </c>
       <c r="J109">
         <v>45</v>
       </c>
-      <c r="K109">
-        <v>45</v>
+      <c r="K109" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L109" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M109" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4886,19 +4811,19 @@
       <c r="G110" t="str">
         <v>note</v>
       </c>
-      <c r="I110" t="str">
+      <c r="H110" t="str">
         <v>webgoat-container/src/test/java/org/owasp/webgoat/session/LabelDebuggerTest.java</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
       </c>
       <c r="J110">
         <v>6</v>
       </c>
-      <c r="K110">
-        <v>6</v>
+      <c r="K110" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L110" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M110" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4924,19 +4849,19 @@
       <c r="G111" t="str">
         <v>note</v>
       </c>
-      <c r="I111" t="str">
+      <c r="H111" t="str">
         <v>webgoat-lessons/missing-function-ac/src/test/java/org/owasp/webgoat/missing_ac/DisplayUserTest.java</v>
+      </c>
+      <c r="I111">
+        <v>30</v>
       </c>
       <c r="J111">
         <v>30</v>
       </c>
-      <c r="K111">
-        <v>30</v>
+      <c r="K111" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L111" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M111" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -4962,19 +4887,19 @@
       <c r="G112" t="str">
         <v>note</v>
       </c>
-      <c r="I112" t="str">
+      <c r="H112" t="str">
         <v>webgoat-lessons/hijack-session/src/test/java/org/owasp/webgoat/hijacksession/cas/HijackSessionAuthenticationProviderTest.java</v>
+      </c>
+      <c r="I112">
+        <v>46</v>
       </c>
       <c r="J112">
         <v>46</v>
       </c>
-      <c r="K112">
-        <v>46</v>
+      <c r="K112" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L112" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M112" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5000,19 +4925,19 @@
       <c r="G113" t="str">
         <v>note</v>
       </c>
-      <c r="I113" t="str">
+      <c r="H113" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/SessionManagementTest.java</v>
+      </c>
+      <c r="I113">
+        <v>36</v>
       </c>
       <c r="J113">
         <v>36</v>
       </c>
-      <c r="K113">
-        <v>36</v>
+      <c r="K113" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L113" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M113" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5038,19 +4963,19 @@
       <c r="G114" t="str">
         <v>note</v>
       </c>
-      <c r="I114" t="str">
+      <c r="H114" t="str">
         <v>webgoat-lessons/webwolf-introduction/src/main/java/org/owasp/webgoat/webwolf_introduction/LandingAssignment.java</v>
+      </c>
+      <c r="I114">
+        <v>61</v>
       </c>
       <c r="J114">
         <v>61</v>
       </c>
-      <c r="K114">
-        <v>61</v>
+      <c r="K114" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L114" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M114" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5076,19 +5001,19 @@
       <c r="G115" t="str">
         <v>note</v>
       </c>
-      <c r="I115" t="str">
+      <c r="H115" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/mitigation/SqlInjectionLesson10b.java</v>
+      </c>
+      <c r="I115">
+        <v>101</v>
       </c>
       <c r="J115">
         <v>101</v>
       </c>
-      <c r="K115">
-        <v>101</v>
+      <c r="K115" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L115" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M115" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5114,19 +5039,19 @@
       <c r="G116" t="str">
         <v>note</v>
       </c>
-      <c r="I116" t="str">
+      <c r="H116" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson9.java</v>
+      </c>
+      <c r="I116">
+        <v>67</v>
       </c>
       <c r="J116">
         <v>67</v>
       </c>
-      <c r="K116">
-        <v>67</v>
+      <c r="K116" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L116" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M116" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5152,19 +5077,19 @@
       <c r="G117" t="str">
         <v>note</v>
       </c>
-      <c r="I117" t="str">
+      <c r="H117" t="str">
         <v>webgoat-lessons/jwt/src/test/java/org/owasp/webgoat/jwt/JWTRefreshEndpointTest.java</v>
+      </c>
+      <c r="I117">
+        <v>72</v>
       </c>
       <c r="J117">
         <v>72</v>
       </c>
-      <c r="K117">
-        <v>72</v>
+      <c r="K117" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L117" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M117" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5190,19 +5115,19 @@
       <c r="G118" t="str">
         <v>note</v>
       </c>
-      <c r="I118" t="str">
+      <c r="H118" t="str">
         <v>webgoat-lessons/idor/src/main/java/org/owasp/webgoat/idor/IDORViewOtherProfile.java</v>
+      </c>
+      <c r="I118">
+        <v>49</v>
       </c>
       <c r="J118">
         <v>49</v>
       </c>
-      <c r="K118">
-        <v>49</v>
+      <c r="K118" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L118" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M118" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5228,19 +5153,19 @@
       <c r="G119" t="str">
         <v>note</v>
       </c>
-      <c r="I119" t="str">
+      <c r="H119" t="str">
         <v>webgoat-lessons/cross-site-scripting/src/test/java/org/owasp/webgoat/xss/DOMCrossSiteScriptingTest.java</v>
+      </c>
+      <c r="I119">
+        <v>51</v>
       </c>
       <c r="J119">
         <v>51</v>
       </c>
-      <c r="K119">
-        <v>51</v>
+      <c r="K119" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L119" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M119" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5266,19 +5191,19 @@
       <c r="G120" t="str">
         <v>note</v>
       </c>
-      <c r="I120" t="str">
+      <c r="H120" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/JWTLessonTest.java</v>
+      </c>
+      <c r="I120">
+        <v>72</v>
       </c>
       <c r="J120">
         <v>72</v>
       </c>
-      <c r="K120">
-        <v>72</v>
+      <c r="K120" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L120" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M120" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5304,19 +5229,19 @@
       <c r="G121" t="str">
         <v>note</v>
       </c>
-      <c r="I121" t="str">
+      <c r="H121" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/controller/StartLesson.java</v>
+      </c>
+      <c r="I121">
+        <v>79</v>
       </c>
       <c r="J121">
         <v>79</v>
       </c>
-      <c r="K121">
-        <v>79</v>
+      <c r="K121" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L121" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M121" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5342,19 +5267,19 @@
       <c r="G122" t="str">
         <v>warning</v>
       </c>
-      <c r="I122" t="str">
+      <c r="H122" t="str">
         <v>webgoat-lessons/cross-site-scripting/src/main/java/org/owasp/webgoat/xss/CrossSiteScriptingLesson3.java</v>
+      </c>
+      <c r="I122">
+        <v>57</v>
       </c>
       <c r="J122">
         <v>57</v>
       </c>
-      <c r="K122">
-        <v>57</v>
+      <c r="K122" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L122" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M122" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5380,19 +5305,19 @@
       <c r="G123" t="str">
         <v>warning</v>
       </c>
-      <c r="I123" t="str">
+      <c r="H123" t="str">
         <v>webgoat-lessons/cross-site-scripting/src/main/java/org/owasp/webgoat/xss/CrossSiteScriptingLesson3.java</v>
+      </c>
+      <c r="I123">
+        <v>56</v>
       </c>
       <c r="J123">
         <v>56</v>
       </c>
-      <c r="K123">
-        <v>56</v>
+      <c r="K123" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L123" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M123" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5418,19 +5343,19 @@
       <c r="G124" t="str">
         <v>warning</v>
       </c>
-      <c r="I124" t="str">
+      <c r="H124" t="str">
         <v>webgoat-lessons/cross-site-scripting/src/main/java/org/owasp/webgoat/xss/CrossSiteScriptingLesson3.java</v>
+      </c>
+      <c r="I124">
+        <v>55</v>
       </c>
       <c r="J124">
         <v>55</v>
       </c>
-      <c r="K124">
-        <v>55</v>
+      <c r="K124" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L124" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M124" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5456,19 +5381,19 @@
       <c r="G125" t="str">
         <v>note</v>
       </c>
-      <c r="I125" t="str">
+      <c r="H125" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/JWTLessonTest.java</v>
+      </c>
+      <c r="I125">
+        <v>172</v>
       </c>
       <c r="J125">
         <v>172</v>
       </c>
-      <c r="K125">
-        <v>172</v>
+      <c r="K125" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L125" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M125" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5494,19 +5419,19 @@
       <c r="G126" t="str">
         <v>note</v>
       </c>
-      <c r="I126" t="str">
+      <c r="H126" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/JWTLessonTest.java</v>
+      </c>
+      <c r="I126">
+        <v>144</v>
       </c>
       <c r="J126">
         <v>144</v>
       </c>
-      <c r="K126">
-        <v>144</v>
+      <c r="K126" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L126" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M126" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5532,19 +5457,19 @@
       <c r="G127" t="str">
         <v>note</v>
       </c>
-      <c r="I127" t="str">
+      <c r="H127" t="str">
         <v>webwolf/src/main/java/org/owasp/webwolf/WebWolf.java</v>
+      </c>
+      <c r="I127">
+        <v>51</v>
       </c>
       <c r="J127">
         <v>51</v>
       </c>
-      <c r="K127">
-        <v>51</v>
+      <c r="K127" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L127" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M127" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5570,19 +5495,19 @@
       <c r="G128" t="str">
         <v>note</v>
       </c>
-      <c r="I128" t="str">
+      <c r="H128" t="str">
         <v>webgoat-lessons/html-tampering/src/main/java/org/owasp/webgoat/html_tampering/HtmlTamperingTask.java</v>
+      </c>
+      <c r="I128">
+        <v>40</v>
       </c>
       <c r="J128">
         <v>40</v>
       </c>
-      <c r="K128">
-        <v>40</v>
+      <c r="K128" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L128" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M128" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5608,19 +5533,19 @@
       <c r="G129" t="str">
         <v>note</v>
       </c>
-      <c r="I129" t="str">
+      <c r="H129" t="str">
         <v>webgoat-lessons/html-tampering/src/main/java/org/owasp/webgoat/html_tampering/HtmlTamperingTask.java</v>
+      </c>
+      <c r="I129">
+        <v>40</v>
       </c>
       <c r="J129">
         <v>40</v>
       </c>
-      <c r="K129">
-        <v>40</v>
+      <c r="K129" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L129" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M129" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5646,19 +5571,19 @@
       <c r="G130" t="str">
         <v>note</v>
       </c>
-      <c r="I130" t="str">
+      <c r="H130" t="str">
         <v>webgoat-lessons/auth-bypass/src/main/java/org/owasp/webgoat/auth_bypass/VerifyAccount.java</v>
+      </c>
+      <c r="I130">
+        <v>70</v>
       </c>
       <c r="J130">
         <v>70</v>
       </c>
-      <c r="K130">
-        <v>70</v>
+      <c r="K130" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L130" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M130" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5684,19 +5609,19 @@
       <c r="G131" t="str">
         <v>note</v>
       </c>
-      <c r="I131" t="str">
+      <c r="H131" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/users/UserRepository.java</v>
+      </c>
+      <c r="I131">
+        <v>15</v>
       </c>
       <c r="J131">
         <v>15</v>
       </c>
-      <c r="K131">
-        <v>15</v>
+      <c r="K131" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L131" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M131" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5722,19 +5647,19 @@
       <c r="G132" t="str">
         <v>note</v>
       </c>
-      <c r="I132" t="str">
+      <c r="H132" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/mitigation/SqlInjectionLesson10b.java</v>
+      </c>
+      <c r="I132">
+        <v>125</v>
       </c>
       <c r="J132">
         <v>125</v>
       </c>
-      <c r="K132">
-        <v>125</v>
+      <c r="K132" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L132" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M132" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5760,19 +5685,19 @@
       <c r="G133" t="str">
         <v>note</v>
       </c>
-      <c r="I133" t="str">
+      <c r="H133" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUploadFix.java</v>
+      </c>
+      <c r="I133">
+        <v>36</v>
       </c>
       <c r="J133">
         <v>36</v>
       </c>
-      <c r="K133">
-        <v>36</v>
+      <c r="K133" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L133" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M133" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5798,19 +5723,19 @@
       <c r="G134" t="str">
         <v>note</v>
       </c>
-      <c r="I134" t="str">
+      <c r="H134" t="str">
         <v>webgoat-lessons/path-traversal/src/main/java/org/owasp/webgoat/path_traversal/ProfileUpload.java</v>
+      </c>
+      <c r="I134">
+        <v>34</v>
       </c>
       <c r="J134">
         <v>34</v>
       </c>
-      <c r="K134">
-        <v>34</v>
+      <c r="K134" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L134" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M134" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5836,19 +5761,19 @@
       <c r="G135" t="str">
         <v>note</v>
       </c>
-      <c r="I135" t="str">
+      <c r="H135" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/asciidoc/WebWolfRootMacro.java</v>
+      </c>
+      <c r="I135">
+        <v>21</v>
       </c>
       <c r="J135">
         <v>21</v>
       </c>
-      <c r="K135">
-        <v>21</v>
+      <c r="K135" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L135" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M135" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5874,19 +5799,19 @@
       <c r="G136" t="str">
         <v>note</v>
       </c>
-      <c r="I136" t="str">
+      <c r="H136" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/AjaxAuthenticationEntryPoint.java</v>
+      </c>
+      <c r="I136">
+        <v>51</v>
       </c>
       <c r="J136">
         <v>51</v>
       </c>
-      <c r="K136">
-        <v>51</v>
+      <c r="K136" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L136" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M136" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5912,19 +5837,19 @@
       <c r="G137" t="str">
         <v>warning</v>
       </c>
-      <c r="I137" t="str">
+      <c r="H137" t="str">
         <v>webgoat-lessons/sql-injection/src/test/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5Test.java</v>
+      </c>
+      <c r="I137">
+        <v>48</v>
       </c>
       <c r="J137">
         <v>48</v>
       </c>
-      <c r="K137">
-        <v>48</v>
+      <c r="K137" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L137" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M137" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5950,19 +5875,19 @@
       <c r="G138" t="str">
         <v>warning</v>
       </c>
-      <c r="I138" t="str">
+      <c r="H138" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson8.java</v>
+      </c>
+      <c r="I138">
+        <v>137</v>
       </c>
       <c r="J138">
         <v>137</v>
       </c>
-      <c r="K138">
-        <v>137</v>
+      <c r="K138" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L138" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M138" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -5988,19 +5913,19 @@
       <c r="G139" t="str">
         <v>warning</v>
       </c>
-      <c r="I139" t="str">
+      <c r="H139" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson8.java</v>
+      </c>
+      <c r="I139">
+        <v>66</v>
       </c>
       <c r="J139">
         <v>66</v>
       </c>
-      <c r="K139">
-        <v>66</v>
+      <c r="K139" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L139" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M139" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6026,19 +5951,19 @@
       <c r="G140" t="str">
         <v>warning</v>
       </c>
-      <c r="I140" t="str">
+      <c r="H140" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson8.java</v>
+      </c>
+      <c r="I140">
+        <v>64</v>
       </c>
       <c r="J140">
         <v>64</v>
       </c>
-      <c r="K140">
-        <v>64</v>
+      <c r="K140" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L140" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M140" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6064,19 +5989,19 @@
       <c r="G141" t="str">
         <v>warning</v>
       </c>
-      <c r="I141" t="str">
+      <c r="H141" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson9.java</v>
+      </c>
+      <c r="I141">
+        <v>66</v>
       </c>
       <c r="J141">
         <v>66</v>
       </c>
-      <c r="K141">
-        <v>66</v>
+      <c r="K141" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L141" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M141" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6102,19 +6027,19 @@
       <c r="G142" t="str">
         <v>warning</v>
       </c>
-      <c r="I142" t="str">
+      <c r="H142" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson9.java</v>
+      </c>
+      <c r="I142">
+        <v>64</v>
       </c>
       <c r="J142">
         <v>64</v>
       </c>
-      <c r="K142">
-        <v>64</v>
+      <c r="K142" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L142" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M142" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6140,19 +6065,19 @@
       <c r="G143" t="str">
         <v>warning</v>
       </c>
-      <c r="I143" t="str">
+      <c r="H143" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5.java</v>
+      </c>
+      <c r="I143">
+        <v>85</v>
       </c>
       <c r="J143">
         <v>85</v>
       </c>
-      <c r="K143">
-        <v>85</v>
+      <c r="K143" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L143" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M143" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6178,19 +6103,19 @@
       <c r="G144" t="str">
         <v>warning</v>
       </c>
-      <c r="I144" t="str">
+      <c r="H144" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5b.java</v>
+      </c>
+      <c r="I144">
+        <v>71</v>
       </c>
       <c r="J144">
         <v>71</v>
       </c>
-      <c r="K144">
-        <v>71</v>
+      <c r="K144" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L144" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M144" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6216,19 +6141,19 @@
       <c r="G145" t="str">
         <v>warning</v>
       </c>
-      <c r="I145" t="str">
+      <c r="H145" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5b.java</v>
+      </c>
+      <c r="I145">
+        <v>58</v>
       </c>
       <c r="J145">
         <v>58</v>
       </c>
-      <c r="K145">
-        <v>58</v>
+      <c r="K145" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L145" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M145" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6254,19 +6179,19 @@
       <c r="G146" t="str">
         <v>warning</v>
       </c>
-      <c r="I146" t="str">
+      <c r="H146" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson3.java</v>
+      </c>
+      <c r="I146">
+        <v>66</v>
       </c>
       <c r="J146">
         <v>66</v>
       </c>
-      <c r="K146">
-        <v>66</v>
+      <c r="K146" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L146" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M146" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6292,19 +6217,19 @@
       <c r="G147" t="str">
         <v>warning</v>
       </c>
-      <c r="I147" t="str">
+      <c r="H147" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson3.java</v>
       </c>
+      <c r="I147">
+        <v>63</v>
+      </c>
       <c r="J147">
-        <v>63</v>
-      </c>
-      <c r="K147">
         <v>64</v>
       </c>
+      <c r="K147" t="str">
+        <v>2021-12-08T14:51:46Z</v>
+      </c>
       <c r="L147" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M147" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6330,19 +6255,19 @@
       <c r="G148" t="str">
         <v>warning</v>
       </c>
-      <c r="I148" t="str">
+      <c r="H148" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson2.java</v>
+      </c>
+      <c r="I148">
+        <v>62</v>
       </c>
       <c r="J148">
         <v>62</v>
       </c>
-      <c r="K148">
-        <v>62</v>
+      <c r="K148" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L148" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M148" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6368,19 +6293,19 @@
       <c r="G149" t="str">
         <v>warning</v>
       </c>
-      <c r="I149" t="str">
+      <c r="H149" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson2.java</v>
+      </c>
+      <c r="I149">
+        <v>61</v>
       </c>
       <c r="J149">
         <v>61</v>
       </c>
-      <c r="K149">
-        <v>61</v>
+      <c r="K149" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L149" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M149" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6406,19 +6331,19 @@
       <c r="G150" t="str">
         <v>warning</v>
       </c>
-      <c r="I150" t="str">
+      <c r="H150" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson10.java</v>
+      </c>
+      <c r="I150">
+        <v>92</v>
       </c>
       <c r="J150">
         <v>92</v>
       </c>
-      <c r="K150">
-        <v>92</v>
+      <c r="K150" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L150" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M150" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6444,19 +6369,19 @@
       <c r="G151" t="str">
         <v>warning</v>
       </c>
-      <c r="I151" t="str">
+      <c r="H151" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson10.java</v>
+      </c>
+      <c r="I151">
+        <v>91</v>
       </c>
       <c r="J151">
         <v>91</v>
       </c>
-      <c r="K151">
-        <v>91</v>
+      <c r="K151" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L151" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M151" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6482,19 +6407,19 @@
       <c r="G152" t="str">
         <v>warning</v>
       </c>
-      <c r="I152" t="str">
+      <c r="H152" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson10.java</v>
+      </c>
+      <c r="I152">
+        <v>63</v>
       </c>
       <c r="J152">
         <v>63</v>
       </c>
-      <c r="K152">
-        <v>63</v>
+      <c r="K152" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L152" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M152" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6520,19 +6445,19 @@
       <c r="G153" t="str">
         <v>warning</v>
       </c>
-      <c r="I153" t="str">
+      <c r="H153" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson10.java</v>
+      </c>
+      <c r="I153">
+        <v>62</v>
       </c>
       <c r="J153">
         <v>62</v>
       </c>
-      <c r="K153">
-        <v>62</v>
+      <c r="K153" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L153" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M153" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6558,19 +6483,19 @@
       <c r="G154" t="str">
         <v>warning</v>
       </c>
-      <c r="I154" t="str">
+      <c r="H154" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionLesson6b.java</v>
+      </c>
+      <c r="I154">
+        <v>67</v>
       </c>
       <c r="J154">
         <v>67</v>
       </c>
-      <c r="K154">
-        <v>67</v>
+      <c r="K154" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L154" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M154" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6596,19 +6521,19 @@
       <c r="G155" t="str">
         <v>warning</v>
       </c>
-      <c r="I155" t="str">
+      <c r="H155" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionLesson6b.java</v>
       </c>
+      <c r="I155">
+        <v>65</v>
+      </c>
       <c r="J155">
-        <v>65</v>
-      </c>
-      <c r="K155">
         <v>66</v>
       </c>
+      <c r="K155" t="str">
+        <v>2021-12-08T14:51:46Z</v>
+      </c>
       <c r="L155" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M155" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6634,19 +6559,19 @@
       <c r="G156" t="str">
         <v>warning</v>
       </c>
-      <c r="I156" t="str">
+      <c r="H156" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallengeLogin.java</v>
+      </c>
+      <c r="I156">
+        <v>51</v>
       </c>
       <c r="J156">
         <v>51</v>
       </c>
-      <c r="K156">
-        <v>51</v>
+      <c r="K156" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L156" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M156" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6672,19 +6597,19 @@
       <c r="G157" t="str">
         <v>warning</v>
       </c>
-      <c r="I157" t="str">
+      <c r="H157" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionChallengeLogin.java</v>
+      </c>
+      <c r="I157">
+        <v>48</v>
       </c>
       <c r="J157">
         <v>48</v>
       </c>
-      <c r="K157">
-        <v>48</v>
+      <c r="K157" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L157" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M157" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6710,19 +6635,19 @@
       <c r="G158" t="str">
         <v>warning</v>
       </c>
-      <c r="I158" t="str">
+      <c r="H158" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTFinalEndpoint.java</v>
+      </c>
+      <c r="I158">
+        <v>94</v>
       </c>
       <c r="J158">
         <v>94</v>
       </c>
-      <c r="K158">
-        <v>94</v>
+      <c r="K158" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L158" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M158" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6748,19 +6673,19 @@
       <c r="G159" t="str">
         <v>warning</v>
       </c>
-      <c r="I159" t="str">
+      <c r="H159" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/lessons/LessonConnectionInvocationHandler.java</v>
+      </c>
+      <c r="I159">
+        <v>28</v>
       </c>
       <c r="J159">
         <v>28</v>
       </c>
-      <c r="K159">
-        <v>28</v>
+      <c r="K159" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L159" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M159" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6786,19 +6711,19 @@
       <c r="G160" t="str">
         <v>error</v>
       </c>
-      <c r="I160" t="str">
+      <c r="H160" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge7/MD5.java</v>
+      </c>
+      <c r="I160">
+        <v>587</v>
       </c>
       <c r="J160">
         <v>587</v>
       </c>
-      <c r="K160">
-        <v>587</v>
+      <c r="K160" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L160" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M160" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6824,19 +6749,19 @@
       <c r="G161" t="str">
         <v>error</v>
       </c>
-      <c r="I161" t="str">
+      <c r="H161" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge7/MD5.java</v>
+      </c>
+      <c r="I161">
+        <v>586</v>
       </c>
       <c r="J161">
         <v>586</v>
       </c>
-      <c r="K161">
-        <v>586</v>
+      <c r="K161" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L161" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M161" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6862,19 +6787,19 @@
       <c r="G162" t="str">
         <v>error</v>
       </c>
-      <c r="I162" t="str">
+      <c r="H162" t="str">
         <v>webgoat-lessons/challenge/src/main/java/org/owasp/webgoat/challenges/challenge7/MD5.java</v>
+      </c>
+      <c r="I162">
+        <v>585</v>
       </c>
       <c r="J162">
         <v>585</v>
       </c>
-      <c r="K162">
-        <v>585</v>
+      <c r="K162" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L162" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M162" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6898,24 +6823,21 @@
         <v>java/xxe</v>
       </c>
       <c r="G163" t="str">
-        <v>error</v>
+        <v>critical</v>
       </c>
       <c r="H163" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I163" t="str">
         <v>webgoat-lessons/xxe/src/main/java/org/owasp/webgoat/xxe/Comments.java</v>
+      </c>
+      <c r="I163">
+        <v>101</v>
       </c>
       <c r="J163">
         <v>101</v>
       </c>
-      <c r="K163">
-        <v>101</v>
+      <c r="K163" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L163" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M163" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6939,24 +6861,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G164" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H164" t="str">
-        <v>high</v>
-      </c>
-      <c r="I164" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson8.java</v>
+      </c>
+      <c r="I164">
+        <v>66</v>
       </c>
       <c r="J164">
         <v>66</v>
       </c>
-      <c r="K164">
-        <v>66</v>
+      <c r="K164" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L164" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M164" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -6980,24 +6899,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G165" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H165" t="str">
-        <v>high</v>
-      </c>
-      <c r="I165" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson9.java</v>
+      </c>
+      <c r="I165">
+        <v>66</v>
       </c>
       <c r="J165">
         <v>66</v>
       </c>
-      <c r="K165">
-        <v>66</v>
+      <c r="K165" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L165" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M165" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7021,24 +6937,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G166" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H166" t="str">
-        <v>high</v>
-      </c>
-      <c r="I166" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5b.java</v>
+      </c>
+      <c r="I166">
+        <v>58</v>
       </c>
       <c r="J166">
         <v>58</v>
       </c>
-      <c r="K166">
-        <v>58</v>
+      <c r="K166" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L166" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M166" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7062,24 +6975,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G167" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H167" t="str">
-        <v>high</v>
-      </c>
-      <c r="I167" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5.java</v>
+      </c>
+      <c r="I167">
+        <v>72</v>
       </c>
       <c r="J167">
         <v>72</v>
       </c>
-      <c r="K167">
-        <v>72</v>
+      <c r="K167" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L167" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M167" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7103,24 +7013,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G168" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H168" t="str">
-        <v>high</v>
-      </c>
-      <c r="I168" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson5a.java</v>
+      </c>
+      <c r="I168">
+        <v>62</v>
       </c>
       <c r="J168">
         <v>62</v>
       </c>
-      <c r="K168">
-        <v>62</v>
+      <c r="K168" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L168" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M168" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7144,24 +7051,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G169" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H169" t="str">
-        <v>high</v>
-      </c>
-      <c r="I169" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson4.java</v>
+      </c>
+      <c r="I169">
+        <v>63</v>
       </c>
       <c r="J169">
         <v>63</v>
       </c>
-      <c r="K169">
-        <v>63</v>
+      <c r="K169" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L169" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M169" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7185,24 +7089,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G170" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H170" t="str">
-        <v>high</v>
-      </c>
-      <c r="I170" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson3.java</v>
+      </c>
+      <c r="I170">
+        <v>65</v>
       </c>
       <c r="J170">
         <v>65</v>
       </c>
-      <c r="K170">
-        <v>65</v>
+      <c r="K170" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L170" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M170" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7226,24 +7127,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G171" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H171" t="str">
-        <v>high</v>
-      </c>
-      <c r="I171" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson2.java</v>
+      </c>
+      <c r="I171">
+        <v>62</v>
       </c>
       <c r="J171">
         <v>62</v>
       </c>
-      <c r="K171">
-        <v>62</v>
+      <c r="K171" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L171" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M171" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7267,24 +7165,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G172" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H172" t="str">
-        <v>high</v>
-      </c>
-      <c r="I172" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/introduction/SqlInjectionLesson10.java</v>
+      </c>
+      <c r="I172">
+        <v>63</v>
       </c>
       <c r="J172">
         <v>63</v>
       </c>
-      <c r="K172">
-        <v>63</v>
+      <c r="K172" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L172" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M172" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7308,24 +7203,21 @@
         <v>java/sql-injection</v>
       </c>
       <c r="G173" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H173" t="str">
-        <v>high</v>
-      </c>
-      <c r="I173" t="str">
         <v>webgoat-lessons/sql-injection/src/main/java/org/owasp/webgoat/sql_injection/advanced/SqlInjectionLesson6a.java</v>
+      </c>
+      <c r="I173">
+        <v>67</v>
       </c>
       <c r="J173">
         <v>67</v>
       </c>
-      <c r="K173">
-        <v>67</v>
+      <c r="K173" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L173" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M173" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7349,24 +7241,21 @@
         <v>java/insecure-cookie</v>
       </c>
       <c r="G174" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H174" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I174" t="str">
         <v>webgoat-lessons/spoof-cookie/src/main/java/org/owasp/webgoat/spoofcookie/SpoofCookieAssignment.java</v>
+      </c>
+      <c r="I174">
+        <v>81</v>
       </c>
       <c r="J174">
         <v>81</v>
       </c>
-      <c r="K174">
-        <v>81</v>
+      <c r="K174" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L174" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M174" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7390,24 +7279,21 @@
         <v>java/insecure-cookie</v>
       </c>
       <c r="G175" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H175" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I175" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTVotesEndpoint.java</v>
+      </c>
+      <c r="I175">
+        <v>111</v>
       </c>
       <c r="J175">
         <v>111</v>
       </c>
-      <c r="K175">
-        <v>111</v>
+      <c r="K175" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L175" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M175" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7431,24 +7317,21 @@
         <v>java/insecure-cookie</v>
       </c>
       <c r="G176" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H176" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I176" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTVotesEndpoint.java</v>
+      </c>
+      <c r="I176">
+        <v>106</v>
       </c>
       <c r="J176">
         <v>106</v>
       </c>
-      <c r="K176">
-        <v>106</v>
+      <c r="K176" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L176" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M176" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7472,24 +7355,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G177" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H177" t="str">
-        <v>high</v>
-      </c>
-      <c r="I177" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTVotesEndpoint.java</v>
+      </c>
+      <c r="I177">
+        <v>170</v>
       </c>
       <c r="J177">
         <v>170</v>
       </c>
-      <c r="K177">
-        <v>170</v>
+      <c r="K177" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L177" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M177" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7513,24 +7393,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G178" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H178" t="str">
-        <v>high</v>
-      </c>
-      <c r="I178" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTVotesEndpoint.java</v>
+      </c>
+      <c r="I178">
+        <v>148</v>
       </c>
       <c r="J178">
         <v>148</v>
       </c>
-      <c r="K178">
-        <v>148</v>
+      <c r="K178" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L178" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M178" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7554,24 +7431,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G179" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H179" t="str">
-        <v>high</v>
-      </c>
-      <c r="I179" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTVotesEndpoint.java</v>
+      </c>
+      <c r="I179">
+        <v>125</v>
       </c>
       <c r="J179">
         <v>125</v>
       </c>
-      <c r="K179">
-        <v>125</v>
+      <c r="K179" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L179" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M179" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7595,24 +7469,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G180" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H180" t="str">
-        <v>high</v>
-      </c>
-      <c r="I180" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTRefreshEndpoint.java</v>
+      </c>
+      <c r="I180">
+        <v>129</v>
       </c>
       <c r="J180">
         <v>129</v>
       </c>
-      <c r="K180">
-        <v>129</v>
+      <c r="K180" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L180" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M180" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7636,24 +7507,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G181" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H181" t="str">
-        <v>high</v>
-      </c>
-      <c r="I181" t="str">
         <v>webgoat-lessons/jwt/src/main/java/org/owasp/webgoat/jwt/JWTRefreshEndpoint.java</v>
+      </c>
+      <c r="I181">
+        <v>104</v>
       </c>
       <c r="J181">
         <v>104</v>
       </c>
-      <c r="K181">
-        <v>104</v>
+      <c r="K181" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L181" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M181" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7677,24 +7545,21 @@
         <v>java/missing-jwt-signature-check</v>
       </c>
       <c r="G182" t="str">
-        <v>error</v>
+        <v>high</v>
       </c>
       <c r="H182" t="str">
-        <v>high</v>
-      </c>
-      <c r="I182" t="str">
         <v>webgoat-integration-tests/src/test/java/org/owasp/webgoat/JWTLessonTest.java</v>
+      </c>
+      <c r="I182">
+        <v>72</v>
       </c>
       <c r="J182">
         <v>72</v>
       </c>
-      <c r="K182">
-        <v>72</v>
+      <c r="K182" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L182" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M182" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7718,24 +7583,21 @@
         <v>java/unsafe-deserialization</v>
       </c>
       <c r="G183" t="str">
-        <v>error</v>
+        <v>critical</v>
       </c>
       <c r="H183" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I183" t="str">
         <v>webgoat-lessons/vulnerable-components/src/main/java/org/owasp/webgoat/vulnerable_components/VulnerableComponentsLesson.java</v>
+      </c>
+      <c r="I183">
+        <v>52</v>
       </c>
       <c r="J183">
         <v>52</v>
       </c>
-      <c r="K183">
-        <v>52</v>
+      <c r="K183" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L183" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M183" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7759,24 +7621,21 @@
         <v>java/stack-trace-exposure</v>
       </c>
       <c r="G184" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H184" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I184" t="str">
         <v>webgoat-container/src/main/java/org/owasp/webgoat/AjaxAuthenticationEntryPoint.java</v>
+      </c>
+      <c r="I184">
+        <v>53</v>
       </c>
       <c r="J184">
         <v>53</v>
       </c>
-      <c r="K184">
-        <v>53</v>
+      <c r="K184" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L184" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M184" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7800,24 +7659,21 @@
         <v>java/weak-cryptographic-algorithm</v>
       </c>
       <c r="G185" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H185" t="str">
-        <v>high</v>
-      </c>
-      <c r="I185" t="str">
         <v>webgoat-lessons/crypto/src/main/java/org/owasp/webgoat/crypto/HashingAssignment.java</v>
+      </c>
+      <c r="I185">
+        <v>56</v>
       </c>
       <c r="J185">
         <v>56</v>
       </c>
-      <c r="K185">
-        <v>56</v>
+      <c r="K185" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L185" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M185" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7841,24 +7697,21 @@
         <v>java/ssrf</v>
       </c>
       <c r="G186" t="str">
-        <v>error</v>
+        <v>critical</v>
       </c>
       <c r="H186" t="str">
-        <v>critical</v>
-      </c>
-      <c r="I186" t="str">
         <v>webgoat-lessons/ssrf/src/main/java/org/owasp/webgoat/ssrf/SSRFTask2.java</v>
+      </c>
+      <c r="I186">
+        <v>53</v>
       </c>
       <c r="J186">
         <v>53</v>
       </c>
-      <c r="K186">
-        <v>53</v>
+      <c r="K186" t="str">
+        <v>2021-12-08T14:51:46Z</v>
       </c>
       <c r="L186" t="str">
-        <v>2021-12-08T14:51:46Z</v>
-      </c>
-      <c r="M186" t="str">
         <v>2021-12-22T06:48:37Z</v>
       </c>
     </row>
@@ -7882,24 +7735,21 @@
         <v>js/regex/missing-regexp-anchor</v>
       </c>
       <c r="G187" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H187" t="str">
-        <v>high</v>
-      </c>
-      <c r="I187" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I187">
+        <v>9467</v>
       </c>
       <c r="J187">
         <v>9467</v>
       </c>
-      <c r="K187">
-        <v>9467</v>
+      <c r="K187" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L187" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M187" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -7925,19 +7775,19 @@
       <c r="G188" t="str">
         <v>warning</v>
       </c>
-      <c r="I188" t="str">
+      <c r="H188" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I188">
+        <v>2009</v>
       </c>
       <c r="J188">
         <v>2009</v>
       </c>
-      <c r="K188">
-        <v>2009</v>
+      <c r="K188" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L188" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M188" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -7963,19 +7813,19 @@
       <c r="G189" t="str">
         <v>warning</v>
       </c>
-      <c r="I189" t="str">
+      <c r="H189" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I189">
+        <v>4637</v>
       </c>
       <c r="J189">
         <v>4637</v>
       </c>
-      <c r="K189">
-        <v>4637</v>
+      <c r="K189" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L189" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M189" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8001,19 +7851,19 @@
       <c r="G190" t="str">
         <v>note</v>
       </c>
-      <c r="I190" t="str">
+      <c r="H190" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I190">
+        <v>9259</v>
       </c>
       <c r="J190">
         <v>9259</v>
       </c>
-      <c r="K190">
-        <v>9259</v>
+      <c r="K190" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L190" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M190" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8039,19 +7889,19 @@
       <c r="G191" t="str">
         <v>note</v>
       </c>
-      <c r="I191" t="str">
+      <c r="H191" t="str">
         <v>webgoat-lessons/client-side-filtering/src/main/resources/js/clientSideFilteringFree.js</v>
+      </c>
+      <c r="I191">
+        <v>55</v>
       </c>
       <c r="J191">
         <v>55</v>
       </c>
-      <c r="K191">
-        <v>55</v>
+      <c r="K191" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L191" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M191" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8077,19 +7927,19 @@
       <c r="G192" t="str">
         <v>note</v>
       </c>
-      <c r="I192" t="str">
+      <c r="H192" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I192">
+        <v>6241</v>
       </c>
       <c r="J192">
         <v>6241</v>
       </c>
-      <c r="K192">
-        <v>6241</v>
+      <c r="K192" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L192" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M192" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8115,19 +7965,19 @@
       <c r="G193" t="str">
         <v>note</v>
       </c>
-      <c r="I193" t="str">
+      <c r="H193" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I193">
+        <v>5845</v>
       </c>
       <c r="J193">
         <v>5845</v>
       </c>
-      <c r="K193">
-        <v>5845</v>
+      <c r="K193" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L193" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M193" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8153,19 +8003,19 @@
       <c r="G194" t="str">
         <v>note</v>
       </c>
-      <c r="I194" t="str">
+      <c r="H194" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I194">
+        <v>5835</v>
       </c>
       <c r="J194">
         <v>5835</v>
       </c>
-      <c r="K194">
-        <v>5835</v>
+      <c r="K194" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L194" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M194" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8191,19 +8041,19 @@
       <c r="G195" t="str">
         <v>note</v>
       </c>
-      <c r="I195" t="str">
+      <c r="H195" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I195">
+        <v>4836</v>
       </c>
       <c r="J195">
         <v>4836</v>
       </c>
-      <c r="K195">
-        <v>4836</v>
+      <c r="K195" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L195" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M195" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8229,19 +8079,19 @@
       <c r="G196" t="str">
         <v>note</v>
       </c>
-      <c r="I196" t="str">
+      <c r="H196" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I196">
+        <v>21009</v>
       </c>
       <c r="J196">
         <v>21009</v>
       </c>
-      <c r="K196">
-        <v>21009</v>
+      <c r="K196" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L196" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M196" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8267,19 +8117,19 @@
       <c r="G197" t="str">
         <v>note</v>
       </c>
-      <c r="I197" t="str">
+      <c r="H197" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I197">
+        <v>21007</v>
       </c>
       <c r="J197">
         <v>21007</v>
       </c>
-      <c r="K197">
-        <v>21007</v>
+      <c r="K197" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L197" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M197" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8305,19 +8155,19 @@
       <c r="G198" t="str">
         <v>note</v>
       </c>
-      <c r="I198" t="str">
+      <c r="H198" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I198">
+        <v>16629</v>
       </c>
       <c r="J198">
         <v>16629</v>
       </c>
-      <c r="K198">
-        <v>16629</v>
+      <c r="K198" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L198" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M198" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8343,19 +8193,19 @@
       <c r="G199" t="str">
         <v>note</v>
       </c>
-      <c r="I199" t="str">
+      <c r="H199" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/bootstrap3-wysihtml5.js</v>
+      </c>
+      <c r="I199">
+        <v>319</v>
       </c>
       <c r="J199">
         <v>319</v>
       </c>
-      <c r="K199">
-        <v>319</v>
+      <c r="K199" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L199" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M199" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8381,19 +8231,19 @@
       <c r="G200" t="str">
         <v>note</v>
       </c>
-      <c r="I200" t="str">
+      <c r="H200" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I200">
+        <v>15252</v>
       </c>
       <c r="J200">
         <v>15252</v>
       </c>
-      <c r="K200">
-        <v>15252</v>
+      <c r="K200" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L200" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M200" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8419,19 +8269,19 @@
       <c r="G201" t="str">
         <v>note</v>
       </c>
-      <c r="I201" t="str">
+      <c r="H201" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I201">
+        <v>13761</v>
       </c>
       <c r="J201">
         <v>13761</v>
       </c>
-      <c r="K201">
-        <v>13761</v>
+      <c r="K201" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L201" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M201" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8457,19 +8307,19 @@
       <c r="G202" t="str">
         <v>note</v>
       </c>
-      <c r="I202" t="str">
+      <c r="H202" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I202">
+        <v>8939</v>
       </c>
       <c r="J202">
         <v>8939</v>
       </c>
-      <c r="K202">
-        <v>8939</v>
+      <c r="K202" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L202" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M202" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8495,19 +8345,19 @@
       <c r="G203" t="str">
         <v>note</v>
       </c>
-      <c r="I203" t="str">
+      <c r="H203" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I203">
+        <v>8934</v>
       </c>
       <c r="J203">
         <v>8934</v>
       </c>
-      <c r="K203">
-        <v>8934</v>
+      <c r="K203" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L203" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M203" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8533,19 +8383,19 @@
       <c r="G204" t="str">
         <v>note</v>
       </c>
-      <c r="I204" t="str">
+      <c r="H204" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I204">
+        <v>8871</v>
       </c>
       <c r="J204">
         <v>8871</v>
       </c>
-      <c r="K204">
-        <v>8871</v>
+      <c r="K204" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L204" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M204" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8571,19 +8421,19 @@
       <c r="G205" t="str">
         <v>note</v>
       </c>
-      <c r="I205" t="str">
+      <c r="H205" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I205">
+        <v>8352</v>
       </c>
       <c r="J205">
         <v>8352</v>
       </c>
-      <c r="K205">
-        <v>8352</v>
+      <c r="K205" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L205" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M205" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8609,19 +8459,19 @@
       <c r="G206" t="str">
         <v>note</v>
       </c>
-      <c r="I206" t="str">
+      <c r="H206" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I206">
+        <v>7671</v>
       </c>
       <c r="J206">
         <v>7671</v>
       </c>
-      <c r="K206">
-        <v>7671</v>
+      <c r="K206" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L206" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M206" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8647,19 +8497,19 @@
       <c r="G207" t="str">
         <v>note</v>
       </c>
-      <c r="I207" t="str">
+      <c r="H207" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I207">
+        <v>7467</v>
       </c>
       <c r="J207">
         <v>7467</v>
       </c>
-      <c r="K207">
-        <v>7467</v>
+      <c r="K207" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L207" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M207" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8685,19 +8535,19 @@
       <c r="G208" t="str">
         <v>note</v>
       </c>
-      <c r="I208" t="str">
+      <c r="H208" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I208">
+        <v>5012</v>
       </c>
       <c r="J208">
         <v>5012</v>
       </c>
-      <c r="K208">
-        <v>5012</v>
+      <c r="K208" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L208" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M208" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8723,19 +8573,19 @@
       <c r="G209" t="str">
         <v>note</v>
       </c>
-      <c r="I209" t="str">
+      <c r="H209" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I209">
+        <v>5012</v>
       </c>
       <c r="J209">
         <v>5012</v>
       </c>
-      <c r="K209">
-        <v>5012</v>
+      <c r="K209" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L209" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M209" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8761,19 +8611,19 @@
       <c r="G210" t="str">
         <v>note</v>
       </c>
-      <c r="I210" t="str">
+      <c r="H210" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I210">
+        <v>5010</v>
       </c>
       <c r="J210">
         <v>5010</v>
       </c>
-      <c r="K210">
-        <v>5010</v>
+      <c r="K210" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L210" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M210" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8799,19 +8649,19 @@
       <c r="G211" t="str">
         <v>note</v>
       </c>
-      <c r="I211" t="str">
+      <c r="H211" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I211">
+        <v>5009</v>
       </c>
       <c r="J211">
         <v>5009</v>
       </c>
-      <c r="K211">
-        <v>5009</v>
+      <c r="K211" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L211" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M211" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8837,19 +8687,19 @@
       <c r="G212" t="str">
         <v>note</v>
       </c>
-      <c r="I212" t="str">
+      <c r="H212" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I212">
+        <v>4443</v>
       </c>
       <c r="J212">
         <v>4443</v>
       </c>
-      <c r="K212">
-        <v>4443</v>
+      <c r="K212" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L212" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M212" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8875,19 +8725,19 @@
       <c r="G213" t="str">
         <v>note</v>
       </c>
-      <c r="I213" t="str">
+      <c r="H213" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I213">
+        <v>3477</v>
       </c>
       <c r="J213">
         <v>3477</v>
       </c>
-      <c r="K213">
-        <v>3477</v>
+      <c r="K213" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L213" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M213" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8913,19 +8763,19 @@
       <c r="G214" t="str">
         <v>note</v>
       </c>
-      <c r="I214" t="str">
+      <c r="H214" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I214">
+        <v>2710</v>
       </c>
       <c r="J214">
         <v>2710</v>
       </c>
-      <c r="K214">
-        <v>2710</v>
+      <c r="K214" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L214" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M214" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8951,19 +8801,19 @@
       <c r="G215" t="str">
         <v>note</v>
       </c>
-      <c r="I215" t="str">
+      <c r="H215" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I215">
+        <v>2220</v>
       </c>
       <c r="J215">
         <v>2220</v>
       </c>
-      <c r="K215">
-        <v>2220</v>
+      <c r="K215" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L215" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M215" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -8989,19 +8839,19 @@
       <c r="G216" t="str">
         <v>note</v>
       </c>
-      <c r="I216" t="str">
+      <c r="H216" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I216">
+        <v>930</v>
       </c>
       <c r="J216">
         <v>930</v>
       </c>
-      <c r="K216">
-        <v>930</v>
+      <c r="K216" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L216" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M216" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9027,19 +8877,19 @@
       <c r="G217" t="str">
         <v>note</v>
       </c>
-      <c r="I217" t="str">
+      <c r="H217" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I217">
+        <v>851</v>
       </c>
       <c r="J217">
         <v>851</v>
       </c>
-      <c r="K217">
-        <v>851</v>
+      <c r="K217" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L217" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M217" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9065,19 +8915,19 @@
       <c r="G218" t="str">
         <v>note</v>
       </c>
-      <c r="I218" t="str">
+      <c r="H218" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/LessonContentView.js</v>
+      </c>
+      <c r="I218">
+        <v>99</v>
       </c>
       <c r="J218">
         <v>99</v>
       </c>
-      <c r="K218">
-        <v>99</v>
+      <c r="K218" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L218" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M218" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9103,19 +8953,19 @@
       <c r="G219" t="str">
         <v>note</v>
       </c>
-      <c r="I219" t="str">
+      <c r="H219" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/PaginationControlView.js</v>
+      </c>
+      <c r="I219">
+        <v>69</v>
       </c>
       <c r="J219">
         <v>69</v>
       </c>
-      <c r="K219">
-        <v>69</v>
+      <c r="K219" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L219" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M219" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9141,19 +8991,19 @@
       <c r="G220" t="str">
         <v>note</v>
       </c>
-      <c r="I220" t="str">
+      <c r="H220" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/PaginationControlView.js</v>
+      </c>
+      <c r="I220">
+        <v>45</v>
       </c>
       <c r="J220">
         <v>45</v>
       </c>
-      <c r="K220">
-        <v>45</v>
+      <c r="K220" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L220" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M220" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9179,19 +9029,19 @@
       <c r="G221" t="str">
         <v>note</v>
       </c>
-      <c r="I221" t="str">
+      <c r="H221" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/MenuView.js</v>
+      </c>
+      <c r="I221">
+        <v>53</v>
       </c>
       <c r="J221">
         <v>53</v>
       </c>
-      <c r="K221">
-        <v>53</v>
+      <c r="K221" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L221" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M221" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9217,19 +9067,19 @@
       <c r="G222" t="str">
         <v>note</v>
       </c>
-      <c r="I222" t="str">
+      <c r="H222" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/MenuView.js</v>
+      </c>
+      <c r="I222">
+        <v>41</v>
       </c>
       <c r="J222">
         <v>41</v>
       </c>
-      <c r="K222">
-        <v>41</v>
+      <c r="K222" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L222" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M222" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9255,19 +9105,19 @@
       <c r="G223" t="str">
         <v>note</v>
       </c>
-      <c r="I223" t="str">
+      <c r="H223" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/MenuView.js</v>
+      </c>
+      <c r="I223">
+        <v>39</v>
       </c>
       <c r="J223">
         <v>39</v>
       </c>
-      <c r="K223">
-        <v>39</v>
+      <c r="K223" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L223" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M223" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9293,19 +9143,19 @@
       <c r="G224" t="str">
         <v>note</v>
       </c>
-      <c r="I224" t="str">
+      <c r="H224" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/GoatRouter.js</v>
+      </c>
+      <c r="I224">
+        <v>28</v>
       </c>
       <c r="J224">
         <v>28</v>
       </c>
-      <c r="K224">
-        <v>28</v>
+      <c r="K224" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L224" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M224" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9331,19 +9181,19 @@
       <c r="G225" t="str">
         <v>note</v>
       </c>
-      <c r="I225" t="str">
+      <c r="H225" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/support/CustomGoat.js</v>
+      </c>
+      <c r="I225">
+        <v>14</v>
       </c>
       <c r="J225">
         <v>14</v>
       </c>
-      <c r="K225">
-        <v>14</v>
+      <c r="K225" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L225" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M225" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9369,19 +9219,19 @@
       <c r="G226" t="str">
         <v>note</v>
       </c>
-      <c r="I226" t="str">
+      <c r="H226" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/model/MenuData.js</v>
+      </c>
+      <c r="I226">
+        <v>12</v>
       </c>
       <c r="J226">
         <v>12</v>
       </c>
-      <c r="K226">
-        <v>12</v>
+      <c r="K226" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L226" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M226" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9407,19 +9257,19 @@
       <c r="G227" t="str">
         <v>note</v>
       </c>
-      <c r="I227" t="str">
+      <c r="H227" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/model/MenuData.js</v>
+      </c>
+      <c r="I227">
+        <v>5</v>
       </c>
       <c r="J227">
         <v>5</v>
       </c>
-      <c r="K227">
-        <v>5</v>
+      <c r="K227" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L227" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M227" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9445,19 +9295,19 @@
       <c r="G228" t="str">
         <v>note</v>
       </c>
-      <c r="I228" t="str">
+      <c r="H228" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/model/MenuCollection.js</v>
+      </c>
+      <c r="I228">
+        <v>12</v>
       </c>
       <c r="J228">
         <v>12</v>
       </c>
-      <c r="K228">
-        <v>12</v>
+      <c r="K228" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L228" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M228" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9483,19 +9333,19 @@
       <c r="G229" t="str">
         <v>note</v>
       </c>
-      <c r="I229" t="str">
+      <c r="H229" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/model/LabelDebugModel.js</v>
+      </c>
+      <c r="I229">
+        <v>21</v>
       </c>
       <c r="J229">
         <v>21</v>
       </c>
-      <c r="K229">
-        <v>21</v>
+      <c r="K229" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L229" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M229" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9521,19 +9371,19 @@
       <c r="G230" t="str">
         <v>note</v>
       </c>
-      <c r="I230" t="str">
+      <c r="H230" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/goatApp.js</v>
+      </c>
+      <c r="I230">
+        <v>25</v>
       </c>
       <c r="J230">
         <v>25</v>
       </c>
-      <c r="K230">
-        <v>25</v>
+      <c r="K230" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L230" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M230" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9559,19 +9409,19 @@
       <c r="G231" t="str">
         <v>note</v>
       </c>
-      <c r="I231" t="str">
+      <c r="H231" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/goatApp.js</v>
+      </c>
+      <c r="I231">
+        <v>20</v>
       </c>
       <c r="J231">
         <v>20</v>
       </c>
-      <c r="K231">
-        <v>20</v>
+      <c r="K231" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L231" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M231" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9597,19 +9447,19 @@
       <c r="G232" t="str">
         <v>warning</v>
       </c>
-      <c r="I232" t="str">
+      <c r="H232" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I232">
+        <v>6071</v>
       </c>
       <c r="J232">
         <v>6071</v>
       </c>
-      <c r="K232">
-        <v>6071</v>
+      <c r="K232" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L232" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M232" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9635,19 +9485,19 @@
       <c r="G233" t="str">
         <v>warning</v>
       </c>
-      <c r="I233" t="str">
+      <c r="H233" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I233">
+        <v>4816</v>
       </c>
       <c r="J233">
         <v>4816</v>
       </c>
-      <c r="K233">
-        <v>4816</v>
+      <c r="K233" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L233" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M233" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9673,19 +9523,19 @@
       <c r="G234" t="str">
         <v>warning</v>
       </c>
-      <c r="I234" t="str">
+      <c r="H234" t="str">
         <v>webgoat-container/src/main/resources/static/js/toggle.js</v>
+      </c>
+      <c r="I234">
+        <v>25</v>
       </c>
       <c r="J234">
         <v>25</v>
       </c>
-      <c r="K234">
-        <v>25</v>
+      <c r="K234" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L234" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M234" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9711,19 +9561,19 @@
       <c r="G235" t="str">
         <v>warning</v>
       </c>
-      <c r="I235" t="str">
+      <c r="H235" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/MenuView.js</v>
+      </c>
+      <c r="I235">
+        <v>77</v>
       </c>
       <c r="J235">
         <v>77</v>
       </c>
-      <c r="K235">
-        <v>77</v>
+      <c r="K235" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L235" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M235" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9749,19 +9599,19 @@
       <c r="G236" t="str">
         <v>warning</v>
       </c>
-      <c r="I236" t="str">
+      <c r="H236" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/GoatRouter.js</v>
+      </c>
+      <c r="I236">
+        <v>93</v>
       </c>
       <c r="J236">
         <v>93</v>
       </c>
-      <c r="K236">
-        <v>93</v>
+      <c r="K236" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L236" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M236" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9787,19 +9637,19 @@
       <c r="G237" t="str">
         <v>warning</v>
       </c>
-      <c r="I237" t="str">
+      <c r="H237" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/controller/MenuController.js</v>
+      </c>
+      <c r="I237">
+        <v>10</v>
       </c>
       <c r="J237">
         <v>10</v>
       </c>
-      <c r="K237">
-        <v>10</v>
+      <c r="K237" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L237" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M237" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9825,19 +9675,19 @@
       <c r="G238" t="str">
         <v>warning</v>
       </c>
-      <c r="I238" t="str">
+      <c r="H238" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I238">
+        <v>6897</v>
       </c>
       <c r="J238">
         <v>6897</v>
       </c>
-      <c r="K238">
-        <v>6897</v>
+      <c r="K238" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L238" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M238" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9863,19 +9713,19 @@
       <c r="G239" t="str">
         <v>warning</v>
       </c>
-      <c r="I239" t="str">
+      <c r="H239" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I239">
+        <v>2248</v>
       </c>
       <c r="J239">
         <v>2248</v>
       </c>
-      <c r="K239">
-        <v>2248</v>
+      <c r="K239" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L239" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M239" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9901,19 +9751,19 @@
       <c r="G240" t="str">
         <v>warning</v>
       </c>
-      <c r="I240" t="str">
+      <c r="H240" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I240">
+        <v>2226</v>
       </c>
       <c r="J240">
         <v>2226</v>
       </c>
-      <c r="K240">
-        <v>2226</v>
+      <c r="K240" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L240" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M240" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9939,19 +9789,19 @@
       <c r="G241" t="str">
         <v>warning</v>
       </c>
-      <c r="I241" t="str">
+      <c r="H241" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I241">
+        <v>2022</v>
       </c>
       <c r="J241">
         <v>2022</v>
       </c>
-      <c r="K241">
-        <v>2022</v>
+      <c r="K241" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L241" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M241" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -9977,19 +9827,19 @@
       <c r="G242" t="str">
         <v>warning</v>
       </c>
-      <c r="I242" t="str">
+      <c r="H242" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
       </c>
+      <c r="I242">
+        <v>16720</v>
+      </c>
       <c r="J242">
-        <v>16720</v>
-      </c>
-      <c r="K242">
         <v>16723</v>
       </c>
+      <c r="K242" t="str">
+        <v>2021-12-08T14:49:53Z</v>
+      </c>
       <c r="L242" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M242" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10015,19 +9865,19 @@
       <c r="G243" t="str">
         <v>warning</v>
       </c>
-      <c r="I243" t="str">
+      <c r="H243" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I243">
+        <v>15124</v>
       </c>
       <c r="J243">
         <v>15124</v>
       </c>
-      <c r="K243">
-        <v>15124</v>
+      <c r="K243" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L243" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M243" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10053,19 +9903,19 @@
       <c r="G244" t="str">
         <v>warning</v>
       </c>
-      <c r="I244" t="str">
+      <c r="H244" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I244">
+        <v>15119</v>
       </c>
       <c r="J244">
         <v>15119</v>
       </c>
-      <c r="K244">
-        <v>15119</v>
+      <c r="K244" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L244" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M244" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10091,19 +9941,19 @@
       <c r="G245" t="str">
         <v>warning</v>
       </c>
-      <c r="I245" t="str">
+      <c r="H245" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I245">
+        <v>10609</v>
       </c>
       <c r="J245">
         <v>10609</v>
       </c>
-      <c r="K245">
-        <v>10609</v>
+      <c r="K245" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L245" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M245" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10129,19 +9979,19 @@
       <c r="G246" t="str">
         <v>warning</v>
       </c>
-      <c r="I246" t="str">
+      <c r="H246" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I246">
+        <v>10592</v>
       </c>
       <c r="J246">
         <v>10592</v>
       </c>
-      <c r="K246">
-        <v>10592</v>
+      <c r="K246" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L246" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M246" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10167,19 +10017,19 @@
       <c r="G247" t="str">
         <v>warning</v>
       </c>
-      <c r="I247" t="str">
+      <c r="H247" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I247">
+        <v>12951</v>
       </c>
       <c r="J247">
         <v>12951</v>
       </c>
-      <c r="K247">
-        <v>12951</v>
+      <c r="K247" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L247" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M247" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10205,19 +10055,19 @@
       <c r="G248" t="str">
         <v>warning</v>
       </c>
-      <c r="I248" t="str">
+      <c r="H248" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I248">
+        <v>5230</v>
       </c>
       <c r="J248">
         <v>5230</v>
       </c>
-      <c r="K248">
-        <v>5230</v>
+      <c r="K248" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L248" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M248" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10243,19 +10093,19 @@
       <c r="G249" t="str">
         <v>warning</v>
       </c>
-      <c r="I249" t="str">
+      <c r="H249" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/LessonContentView.js</v>
+      </c>
+      <c r="I249">
+        <v>19</v>
       </c>
       <c r="J249">
         <v>19</v>
       </c>
-      <c r="K249">
-        <v>19</v>
+      <c r="K249" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L249" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M249" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10281,19 +10131,19 @@
       <c r="G250" t="str">
         <v>warning</v>
       </c>
-      <c r="I250" t="str">
+      <c r="H250" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I250">
+        <v>3336</v>
       </c>
       <c r="J250">
         <v>3336</v>
       </c>
-      <c r="K250">
-        <v>3336</v>
+      <c r="K250" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L250" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M250" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10319,19 +10169,19 @@
       <c r="G251" t="str">
         <v>warning</v>
       </c>
-      <c r="I251" t="str">
+      <c r="H251" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I251">
+        <v>2282</v>
       </c>
       <c r="J251">
         <v>2282</v>
       </c>
-      <c r="K251">
-        <v>2282</v>
+      <c r="K251" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L251" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M251" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10357,19 +10207,19 @@
       <c r="G252" t="str">
         <v>warning</v>
       </c>
-      <c r="I252" t="str">
+      <c r="H252" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I252">
+        <v>2281</v>
       </c>
       <c r="J252">
         <v>2281</v>
       </c>
-      <c r="K252">
-        <v>2281</v>
+      <c r="K252" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L252" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M252" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10395,19 +10245,19 @@
       <c r="G253" t="str">
         <v>warning</v>
       </c>
-      <c r="I253" t="str">
+      <c r="H253" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I253">
+        <v>110</v>
       </c>
       <c r="J253">
         <v>110</v>
       </c>
-      <c r="K253">
-        <v>110</v>
+      <c r="K253" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L253" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M253" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10433,19 +10283,19 @@
       <c r="G254" t="str">
         <v>note</v>
       </c>
-      <c r="I254" t="str">
+      <c r="H254" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I254">
+        <v>9031</v>
       </c>
       <c r="J254">
         <v>9031</v>
       </c>
-      <c r="K254">
-        <v>9031</v>
+      <c r="K254" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L254" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M254" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10471,19 +10321,19 @@
       <c r="G255" t="str">
         <v>note</v>
       </c>
-      <c r="I255" t="str">
+      <c r="H255" t="str">
         <v>webgoat-lessons/bypass-restrictions/src/main/resources/html/BypassRestrictions.html</v>
+      </c>
+      <c r="I255">
+        <v>155</v>
       </c>
       <c r="J255">
         <v>155</v>
       </c>
-      <c r="K255">
-        <v>155</v>
+      <c r="K255" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L255" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M255" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10509,19 +10359,19 @@
       <c r="G256" t="str">
         <v>note</v>
       </c>
-      <c r="I256" t="str">
+      <c r="H256" t="str">
         <v>webgoat-lessons/bypass-restrictions/src/main/resources/html/BypassRestrictions.html</v>
+      </c>
+      <c r="I256">
+        <v>153</v>
       </c>
       <c r="J256">
         <v>153</v>
       </c>
-      <c r="K256">
-        <v>153</v>
+      <c r="K256" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L256" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M256" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10547,19 +10397,19 @@
       <c r="G257" t="str">
         <v>note</v>
       </c>
-      <c r="I257" t="str">
+      <c r="H257" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-slider/js/bootstrap-slider.js</v>
+      </c>
+      <c r="I257">
+        <v>99</v>
       </c>
       <c r="J257">
         <v>99</v>
       </c>
-      <c r="K257">
-        <v>99</v>
+      <c r="K257" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L257" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M257" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10585,19 +10435,19 @@
       <c r="G258" t="str">
         <v>note</v>
       </c>
-      <c r="I258" t="str">
+      <c r="H258" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-slider/js/bootstrap-slider.js</v>
+      </c>
+      <c r="I258">
+        <v>95</v>
       </c>
       <c r="J258">
         <v>95</v>
       </c>
-      <c r="K258">
-        <v>95</v>
+      <c r="K258" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L258" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M258" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10623,19 +10473,19 @@
       <c r="G259" t="str">
         <v>note</v>
       </c>
-      <c r="I259" t="str">
+      <c r="H259" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I259">
+        <v>736</v>
       </c>
       <c r="J259">
         <v>736</v>
       </c>
-      <c r="K259">
-        <v>736</v>
+      <c r="K259" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L259" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M259" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10661,19 +10511,19 @@
       <c r="G260" t="str">
         <v>note</v>
       </c>
-      <c r="I260" t="str">
+      <c r="H260" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I260">
+        <v>698</v>
       </c>
       <c r="J260">
         <v>698</v>
       </c>
-      <c r="K260">
-        <v>698</v>
+      <c r="K260" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L260" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M260" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10699,19 +10549,19 @@
       <c r="G261" t="str">
         <v>note</v>
       </c>
-      <c r="I261" t="str">
+      <c r="H261" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/LessonContentView.js</v>
+      </c>
+      <c r="I261">
+        <v>108</v>
       </c>
       <c r="J261">
         <v>108</v>
       </c>
-      <c r="K261">
-        <v>108</v>
+      <c r="K261" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L261" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M261" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10737,19 +10587,19 @@
       <c r="G262" t="str">
         <v>warning</v>
       </c>
-      <c r="I262" t="str">
+      <c r="H262" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I262">
+        <v>2109</v>
       </c>
       <c r="J262">
         <v>2109</v>
       </c>
-      <c r="K262">
-        <v>2109</v>
+      <c r="K262" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L262" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M262" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10775,19 +10625,19 @@
       <c r="G263" t="str">
         <v>warning</v>
       </c>
-      <c r="I263" t="str">
+      <c r="H263" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I263">
+        <v>4440</v>
       </c>
       <c r="J263">
         <v>4440</v>
       </c>
-      <c r="K263">
-        <v>4440</v>
+      <c r="K263" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L263" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M263" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10813,19 +10663,19 @@
       <c r="G264" t="str">
         <v>warning</v>
       </c>
-      <c r="I264" t="str">
+      <c r="H264" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I264">
+        <v>4315</v>
       </c>
       <c r="J264">
         <v>4315</v>
       </c>
-      <c r="K264">
-        <v>4315</v>
+      <c r="K264" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L264" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M264" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10851,19 +10701,19 @@
       <c r="G265" t="str">
         <v>note</v>
       </c>
-      <c r="I265" t="str">
+      <c r="H265" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/text.js</v>
+      </c>
+      <c r="I265">
+        <v>386</v>
       </c>
       <c r="J265">
         <v>386</v>
       </c>
-      <c r="K265">
-        <v>386</v>
+      <c r="K265" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L265" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M265" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10889,19 +10739,19 @@
       <c r="G266" t="str">
         <v>warning</v>
       </c>
-      <c r="I266" t="str">
+      <c r="H266" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I266">
+        <v>2901</v>
       </c>
       <c r="J266">
         <v>2901</v>
       </c>
-      <c r="K266">
-        <v>2901</v>
+      <c r="K266" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L266" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M266" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10927,19 +10777,19 @@
       <c r="G267" t="str">
         <v>warning</v>
       </c>
-      <c r="I267" t="str">
+      <c r="H267" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I267">
+        <v>15272</v>
       </c>
       <c r="J267">
         <v>15272</v>
       </c>
-      <c r="K267">
-        <v>15272</v>
+      <c r="K267" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L267" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M267" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -10965,19 +10815,19 @@
       <c r="G268" t="str">
         <v>warning</v>
       </c>
-      <c r="I268" t="str">
+      <c r="H268" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-slider/js/bootstrap-slider.js</v>
+      </c>
+      <c r="I268">
+        <v>290</v>
       </c>
       <c r="J268">
         <v>290</v>
       </c>
-      <c r="K268">
-        <v>290</v>
+      <c r="K268" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L268" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M268" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11003,19 +10853,19 @@
       <c r="G269" t="str">
         <v>warning</v>
       </c>
-      <c r="I269" t="str">
+      <c r="H269" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I269">
+        <v>9273</v>
       </c>
       <c r="J269">
         <v>9273</v>
       </c>
-      <c r="K269">
-        <v>9273</v>
+      <c r="K269" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L269" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M269" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11041,19 +10891,19 @@
       <c r="G270" t="str">
         <v>warning</v>
       </c>
-      <c r="I270" t="str">
+      <c r="H270" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I270">
+        <v>325</v>
       </c>
       <c r="J270">
         <v>325</v>
       </c>
-      <c r="K270">
-        <v>325</v>
+      <c r="K270" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L270" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M270" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11079,19 +10929,19 @@
       <c r="G271" t="str">
         <v>warning</v>
       </c>
-      <c r="I271" t="str">
+      <c r="H271" t="str">
         <v>webgoat-container/src/main/resources/static/js/goatApp/view/PaginationControlView.js</v>
+      </c>
+      <c r="I271">
+        <v>147</v>
       </c>
       <c r="J271">
         <v>147</v>
       </c>
-      <c r="K271">
-        <v>147</v>
+      <c r="K271" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L271" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M271" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11117,19 +10967,19 @@
       <c r="G272" t="str">
         <v>warning</v>
       </c>
-      <c r="I272" t="str">
+      <c r="H272" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I272">
+        <v>8141</v>
       </c>
       <c r="J272">
         <v>8141</v>
       </c>
-      <c r="K272">
-        <v>8141</v>
+      <c r="K272" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L272" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M272" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11155,19 +11005,19 @@
       <c r="G273" t="str">
         <v>warning</v>
       </c>
-      <c r="I273" t="str">
+      <c r="H273" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I273">
+        <v>2518</v>
       </c>
       <c r="J273">
         <v>2518</v>
       </c>
-      <c r="K273">
-        <v>2518</v>
+      <c r="K273" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L273" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M273" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11193,19 +11043,19 @@
       <c r="G274" t="str">
         <v>warning</v>
       </c>
-      <c r="I274" t="str">
+      <c r="H274" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I274">
+        <v>355</v>
       </c>
       <c r="J274">
         <v>355</v>
       </c>
-      <c r="K274">
-        <v>355</v>
+      <c r="K274" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L274" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M274" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11231,19 +11081,19 @@
       <c r="G275" t="str">
         <v>warning</v>
       </c>
-      <c r="I275" t="str">
+      <c r="H275" t="str">
         <v>webgoat-container/src/main/resources/static/plugins/bootstrap-wysihtml5/js/wysihtml5-0.3.0.js</v>
+      </c>
+      <c r="I275">
+        <v>344</v>
       </c>
       <c r="J275">
         <v>344</v>
       </c>
-      <c r="K275">
-        <v>344</v>
+      <c r="K275" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L275" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M275" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11269,19 +11119,19 @@
       <c r="G276" t="str">
         <v>warning</v>
       </c>
-      <c r="I276" t="str">
+      <c r="H276" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I276">
+        <v>16505</v>
       </c>
       <c r="J276">
         <v>16505</v>
       </c>
-      <c r="K276">
-        <v>16505</v>
+      <c r="K276" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L276" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M276" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11307,19 +11157,19 @@
       <c r="G277" t="str">
         <v>warning</v>
       </c>
-      <c r="I277" t="str">
+      <c r="H277" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I277">
+        <v>4364</v>
       </c>
       <c r="J277">
         <v>4364</v>
       </c>
-      <c r="K277">
-        <v>4364</v>
+      <c r="K277" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L277" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M277" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11345,19 +11195,19 @@
       <c r="G278" t="str">
         <v>warning</v>
       </c>
-      <c r="I278" t="str">
+      <c r="H278" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I278">
+        <v>4354</v>
       </c>
       <c r="J278">
         <v>4354</v>
       </c>
-      <c r="K278">
-        <v>4354</v>
+      <c r="K278" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L278" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M278" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11383,19 +11233,19 @@
       <c r="G279" t="str">
         <v>warning</v>
       </c>
-      <c r="I279" t="str">
+      <c r="H279" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I279">
+        <v>8915</v>
       </c>
       <c r="J279">
         <v>8915</v>
       </c>
-      <c r="K279">
-        <v>8915</v>
+      <c r="K279" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L279" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M279" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11421,19 +11271,19 @@
       <c r="G280" t="str">
         <v>warning</v>
       </c>
-      <c r="I280" t="str">
+      <c r="H280" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I280">
+        <v>3131</v>
       </c>
       <c r="J280">
         <v>3131</v>
       </c>
-      <c r="K280">
-        <v>3131</v>
+      <c r="K280" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L280" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M280" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11459,19 +11309,19 @@
       <c r="G281" t="str">
         <v>warning</v>
       </c>
-      <c r="I281" t="str">
+      <c r="H281" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I281">
+        <v>2111</v>
       </c>
       <c r="J281">
         <v>2111</v>
       </c>
-      <c r="K281">
-        <v>2111</v>
+      <c r="K281" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L281" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M281" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11497,19 +11347,19 @@
       <c r="G282" t="str">
         <v>warning</v>
       </c>
-      <c r="I282" t="str">
+      <c r="H282" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I282">
+        <v>1985</v>
       </c>
       <c r="J282">
         <v>1985</v>
       </c>
-      <c r="K282">
-        <v>1985</v>
+      <c r="K282" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L282" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M282" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11535,19 +11385,19 @@
       <c r="G283" t="str">
         <v>error</v>
       </c>
-      <c r="I283" t="str">
+      <c r="H283" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/ace.js</v>
+      </c>
+      <c r="I283">
+        <v>851</v>
       </c>
       <c r="J283">
         <v>851</v>
       </c>
-      <c r="K283">
-        <v>851</v>
+      <c r="K283" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L283" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M283" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11571,24 +11421,21 @@
         <v>js/unsafe-jquery-plugin</v>
       </c>
       <c r="G284" t="str">
-        <v>warning</v>
+        <v>medium</v>
       </c>
       <c r="H284" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I284" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery.form.js</v>
+      </c>
+      <c r="I284">
+        <v>376</v>
       </c>
       <c r="J284">
         <v>376</v>
       </c>
-      <c r="K284">
-        <v>376</v>
+      <c r="K284" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L284" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M284" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11612,24 +11459,21 @@
         <v>js/unsafe-jquery-plugin</v>
       </c>
       <c r="G285" t="str">
-        <v>warning</v>
+        <v>medium</v>
       </c>
       <c r="H285" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I285" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery.form.js</v>
+      </c>
+      <c r="I285">
+        <v>193</v>
       </c>
       <c r="J285">
         <v>193</v>
       </c>
-      <c r="K285">
-        <v>193</v>
+      <c r="K285" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L285" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M285" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11653,24 +11497,21 @@
         <v>js/unsafe-jquery-plugin</v>
       </c>
       <c r="G286" t="str">
-        <v>warning</v>
+        <v>medium</v>
       </c>
       <c r="H286" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I286" t="str">
         <v>webgoat-container/src/main/resources/static/js/jquery_form/jquery.form.js</v>
+      </c>
+      <c r="I286">
+        <v>376</v>
       </c>
       <c r="J286">
         <v>376</v>
       </c>
-      <c r="K286">
-        <v>376</v>
+      <c r="K286" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L286" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M286" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11694,24 +11535,21 @@
         <v>js/unsafe-jquery-plugin</v>
       </c>
       <c r="G287" t="str">
-        <v>warning</v>
+        <v>medium</v>
       </c>
       <c r="H287" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I287" t="str">
         <v>webgoat-container/src/main/resources/static/js/jquery_form/jquery.form.js</v>
+      </c>
+      <c r="I287">
+        <v>193</v>
       </c>
       <c r="J287">
         <v>193</v>
       </c>
-      <c r="K287">
-        <v>193</v>
+      <c r="K287" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L287" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M287" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11735,24 +11573,21 @@
         <v>js/html-constructed-from-input</v>
       </c>
       <c r="G288" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H288" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I288" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery.form.js</v>
+      </c>
+      <c r="I288">
+        <v>565</v>
       </c>
       <c r="J288">
         <v>565</v>
       </c>
-      <c r="K288">
-        <v>565</v>
+      <c r="K288" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L288" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M288" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11776,24 +11611,21 @@
         <v>js/html-constructed-from-input</v>
       </c>
       <c r="G289" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H289" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I289" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery.form.js</v>
+      </c>
+      <c r="I289">
+        <v>386</v>
       </c>
       <c r="J289">
         <v>386</v>
       </c>
-      <c r="K289">
-        <v>386</v>
+      <c r="K289" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L289" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M289" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11817,24 +11649,21 @@
         <v>js/html-constructed-from-input</v>
       </c>
       <c r="G290" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H290" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I290" t="str">
         <v>webgoat-container/src/main/resources/static/js/jquery_form/jquery.form.js</v>
+      </c>
+      <c r="I290">
+        <v>565</v>
       </c>
       <c r="J290">
         <v>565</v>
       </c>
-      <c r="K290">
-        <v>565</v>
+      <c r="K290" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L290" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M290" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11858,24 +11687,21 @@
         <v>js/html-constructed-from-input</v>
       </c>
       <c r="G291" t="str">
-        <v>error</v>
+        <v>medium</v>
       </c>
       <c r="H291" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I291" t="str">
         <v>webgoat-container/src/main/resources/static/js/jquery_form/jquery.form.js</v>
+      </c>
+      <c r="I291">
+        <v>386</v>
       </c>
       <c r="J291">
         <v>386</v>
       </c>
-      <c r="K291">
-        <v>386</v>
+      <c r="K291" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L291" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M291" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11899,24 +11725,21 @@
         <v>js/xss-through-dom</v>
       </c>
       <c r="G292" t="str">
-        <v>warning</v>
+        <v>medium</v>
       </c>
       <c r="H292" t="str">
-        <v>medium</v>
-      </c>
-      <c r="I292" t="str">
         <v>webgoat-lessons/html-tampering/src/main/resources/html/HtmlTampering.html</v>
+      </c>
+      <c r="I292">
+        <v>20</v>
       </c>
       <c r="J292">
         <v>20</v>
       </c>
-      <c r="K292">
-        <v>20</v>
+      <c r="K292" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L292" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M292" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11940,24 +11763,21 @@
         <v>js/incomplete-sanitization</v>
       </c>
       <c r="G293" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H293" t="str">
-        <v>high</v>
-      </c>
-      <c r="I293" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I293">
+        <v>14072</v>
       </c>
       <c r="J293">
         <v>14072</v>
       </c>
-      <c r="K293">
-        <v>14072</v>
+      <c r="K293" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L293" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M293" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
@@ -11981,30 +11801,27 @@
         <v>js/incomplete-sanitization</v>
       </c>
       <c r="G294" t="str">
-        <v>warning</v>
+        <v>high</v>
       </c>
       <c r="H294" t="str">
-        <v>high</v>
-      </c>
-      <c r="I294" t="str">
         <v>webgoat-container/src/main/resources/static/js/libs/jquery-ui-1.10.4.js</v>
+      </c>
+      <c r="I294">
+        <v>7227</v>
       </c>
       <c r="J294">
         <v>7227</v>
       </c>
-      <c r="K294">
-        <v>7227</v>
+      <c r="K294" t="str">
+        <v>2021-12-08T14:49:53Z</v>
       </c>
       <c r="L294" t="str">
-        <v>2021-12-08T14:49:53Z</v>
-      </c>
-      <c r="M294" t="str">
         <v>2021-12-22T06:45:01Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P294"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O294"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13370,7 +13187,7 @@
         <v>ACTIONS</v>
       </c>
       <c r="D80" t="str">
-        <v>= 2</v>
+        <v>= 3</v>
       </c>
       <c r="E80" t="str">
         <v>MIT License</v>
@@ -14294,7 +14111,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14304,15 +14121,24 @@
         <v>count html_url</v>
       </c>
       <c r="B1" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C1" t="str">
+        <v>high</v>
+      </c>
+      <c r="D1" t="str">
         <v>warning</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>note</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>error</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
+        <v>medium</v>
+      </c>
+      <c r="H1" t="str">
         <v>Totals</v>
       </c>
     </row>
@@ -14329,7 +14155,16 @@
       <c r="D2" t="str">
         <v/>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>
@@ -14337,16 +14172,25 @@
       <c r="A3" t="str">
         <v>java/potentially-weak-cryptographic-algorithm</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
       <c r="D3" t="str">
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
@@ -14354,16 +14198,25 @@
       <c r="A4" t="str">
         <v>java/unsafe-get-resource</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4">
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -14374,13 +14227,22 @@
       <c r="B5" t="str">
         <v/>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5">
         <v>17</v>
       </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5">
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
     </row>
@@ -14391,13 +14253,22 @@
       <c r="B6" t="str">
         <v/>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6">
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
     </row>
@@ -14408,13 +14279,22 @@
       <c r="B7" t="str">
         <v/>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7">
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
@@ -14422,16 +14302,25 @@
       <c r="A8" t="str">
         <v>java/input-resource-leak</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8">
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
     </row>
@@ -14439,16 +14328,25 @@
       <c r="A9" t="str">
         <v>java/database-resource-leak</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9">
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9">
         <v>28</v>
       </c>
     </row>
@@ -14456,16 +14354,25 @@
       <c r="A10" t="str">
         <v>java/output-resource-leak</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10">
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
@@ -14473,16 +14380,25 @@
       <c r="A11" t="str">
         <v>java/unused-format-argument</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
@@ -14493,13 +14409,22 @@
       <c r="B12" t="str">
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12">
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
@@ -14507,16 +14432,25 @@
       <c r="A13" t="str">
         <v>java/dereferenced-value-may-be-null</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13">
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
@@ -14527,13 +14461,22 @@
       <c r="B14" t="str">
         <v/>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14">
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14">
         <v>10</v>
       </c>
     </row>
@@ -14544,13 +14487,22 @@
       <c r="B15" t="str">
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15">
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15">
         <v>8</v>
       </c>
     </row>
@@ -14561,13 +14513,22 @@
       <c r="B16" t="str">
         <v/>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16">
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16">
         <v>7</v>
       </c>
     </row>
@@ -14578,13 +14539,22 @@
       <c r="B17" t="str">
         <v/>
       </c>
-      <c r="C17">
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17">
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
     </row>
@@ -14595,13 +14565,22 @@
       <c r="B18" t="str">
         <v/>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18">
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
@@ -14612,13 +14591,22 @@
       <c r="B19" t="str">
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19">
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19">
         <v>6</v>
       </c>
     </row>
@@ -14629,13 +14617,22 @@
       <c r="B20" t="str">
         <v/>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20">
         <v>23</v>
       </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-      <c r="E20">
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20">
         <v>23</v>
       </c>
     </row>
@@ -14646,13 +14643,22 @@
       <c r="B21" t="str">
         <v/>
       </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21">
         <v>5</v>
       </c>
     </row>
@@ -14663,13 +14669,22 @@
       <c r="B22" t="str">
         <v/>
       </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
@@ -14680,13 +14695,22 @@
       <c r="B23" t="str">
         <v/>
       </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
     </row>
@@ -14697,13 +14721,22 @@
       <c r="B24" t="str">
         <v/>
       </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="E24">
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24">
         <v>13</v>
       </c>
     </row>
@@ -14714,13 +14747,22 @@
       <c r="B25" t="str">
         <v/>
       </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25">
         <v>8</v>
       </c>
     </row>
@@ -14731,13 +14773,22 @@
       <c r="B26" t="str">
         <v/>
       </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
     </row>
@@ -14745,16 +14796,25 @@
       <c r="A27" t="str">
         <v>java/reference-equality-on-strings</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="C27" t="str">
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27">
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
@@ -14762,16 +14822,25 @@
       <c r="A28" t="str">
         <v>java/multiplication-of-remainder</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <v/>
-      </c>
-      <c r="E28">
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
@@ -14779,16 +14848,25 @@
       <c r="A29" t="str">
         <v>java/non-null-boxed-variable</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29">
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29">
         <v>3</v>
       </c>
     </row>
@@ -14799,13 +14877,22 @@
       <c r="B30" t="str">
         <v/>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30">
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
     </row>
@@ -14819,10 +14906,19 @@
       <c r="C31" t="str">
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
     </row>
@@ -14830,16 +14926,25 @@
       <c r="A32" t="str">
         <v>java/xxe</v>
       </c>
-      <c r="B32" t="str">
-        <v/>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -14853,10 +14958,19 @@
       <c r="C33" t="str">
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>3</v>
       </c>
     </row>
@@ -14864,16 +14978,25 @@
       <c r="A34" t="str">
         <v>java/unsafe-deserialization</v>
       </c>
-      <c r="B34" t="str">
-        <v/>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
@@ -14887,10 +15010,19 @@
       <c r="C35" t="str">
         <v/>
       </c>
-      <c r="D35">
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
@@ -14898,16 +15030,25 @@
       <c r="A36" t="str">
         <v>java/weak-cryptographic-algorithm</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
       <c r="D36" t="str">
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
@@ -14915,16 +15056,25 @@
       <c r="A37" t="str">
         <v>java/ssrf</v>
       </c>
-      <c r="B37" t="str">
-        <v/>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
@@ -14932,16 +15082,25 @@
       <c r="A38" t="str">
         <v>js/regex/missing-regexp-anchor</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="C38" t="str">
-        <v/>
-      </c>
       <c r="D38" t="str">
         <v/>
       </c>
-      <c r="E38">
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
     </row>
@@ -14949,16 +15108,25 @@
       <c r="A39" t="str">
         <v>js/useless-assignment-to-property</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="C39" t="str">
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <v/>
-      </c>
-      <c r="E39">
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39">
         <v>2</v>
       </c>
     </row>
@@ -14969,13 +15137,22 @@
       <c r="B40" t="str">
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40">
         <v>42</v>
       </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-      <c r="E40">
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40">
         <v>42</v>
       </c>
     </row>
@@ -14983,16 +15160,25 @@
       <c r="A41" t="str">
         <v>js/missing-variable-declaration</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41">
         <v>6</v>
       </c>
-      <c r="C41" t="str">
-        <v/>
-      </c>
-      <c r="D41" t="str">
-        <v/>
-      </c>
-      <c r="E41">
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41">
         <v>6</v>
       </c>
     </row>
@@ -15000,16 +15186,25 @@
       <c r="A42" t="str">
         <v>js/useless-assignment-to-local</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42">
         <v>12</v>
       </c>
-      <c r="C42" t="str">
-        <v/>
-      </c>
-      <c r="D42" t="str">
-        <v/>
-      </c>
-      <c r="E42">
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42">
         <v>12</v>
       </c>
     </row>
@@ -15017,16 +15212,25 @@
       <c r="A43" t="str">
         <v>js/use-before-declaration</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="C43" t="str">
-        <v/>
-      </c>
-      <c r="D43" t="str">
-        <v/>
-      </c>
-      <c r="E43">
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43">
         <v>4</v>
       </c>
     </row>
@@ -15037,13 +15241,22 @@
       <c r="B44" t="str">
         <v/>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44">
         <v>8</v>
       </c>
-      <c r="D44" t="str">
-        <v/>
-      </c>
-      <c r="E44">
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44">
         <v>8</v>
       </c>
     </row>
@@ -15051,16 +15264,25 @@
       <c r="A45" t="str">
         <v>js/index-out-of-bounds</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="C45" t="str">
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-      <c r="E45">
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
     </row>
@@ -15068,16 +15290,25 @@
       <c r="A46" t="str">
         <v>js/unknown-directive</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46">
         <v>2</v>
       </c>
-      <c r="C46" t="str">
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-      <c r="E46">
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
     </row>
@@ -15088,13 +15319,22 @@
       <c r="B47" t="str">
         <v/>
       </c>
-      <c r="C47">
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-      <c r="E47">
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
     </row>
@@ -15102,16 +15342,25 @@
       <c r="A48" t="str">
         <v>js/whitespace-contradicts-precedence</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v/>
-      </c>
-      <c r="E48">
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
     </row>
@@ -15119,16 +15368,25 @@
       <c r="A49" t="str">
         <v>js/useless-expression</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-      <c r="E49">
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49">
         <v>5</v>
       </c>
     </row>
@@ -15136,16 +15394,25 @@
       <c r="A50" t="str">
         <v>js/trivial-conditional</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50">
         <v>9</v>
       </c>
-      <c r="C50" t="str">
-        <v/>
-      </c>
-      <c r="D50" t="str">
-        <v/>
-      </c>
-      <c r="E50">
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50">
         <v>9</v>
       </c>
     </row>
@@ -15153,16 +15420,25 @@
       <c r="A51" t="str">
         <v>js/loop-iteration-skipped-due-to-shifting</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="C51" t="str">
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <v/>
-      </c>
-      <c r="E51">
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51">
         <v>2</v>
       </c>
     </row>
@@ -15176,10 +15452,19 @@
       <c r="C52" t="str">
         <v/>
       </c>
-      <c r="D52">
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
@@ -15187,16 +15472,25 @@
       <c r="A53" t="str">
         <v>js/unsafe-jquery-plugin</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53">
         <v>4</v>
       </c>
-      <c r="C53" t="str">
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
-      <c r="E53">
+      <c r="H53">
         <v>4</v>
       </c>
     </row>
@@ -15210,10 +15504,19 @@
       <c r="C54" t="str">
         <v/>
       </c>
-      <c r="D54">
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54">
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>4</v>
       </c>
     </row>
@@ -15221,16 +15524,25 @@
       <c r="A55" t="str">
         <v>js/xss-through-dom</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
-      <c r="C55" t="str">
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <v/>
-      </c>
-      <c r="E55">
+      <c r="H55">
         <v>1</v>
       </c>
     </row>
@@ -15238,16 +15550,25 @@
       <c r="A56" t="str">
         <v>js/incomplete-sanitization</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="C56" t="str">
-        <v/>
-      </c>
       <c r="D56" t="str">
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
     </row>
@@ -15256,21 +15577,30 @@
         <v>Totals</v>
       </c>
       <c r="B57">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>85</v>
+      </c>
+      <c r="E57">
         <v>144</v>
       </c>
-      <c r="D57">
-        <v>46</v>
-      </c>
-      <c r="E57" t="str">
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H57"/>
   </ignoredErrors>
 </worksheet>
 </file>